--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10435,6 +10435,114 @@
       <c r="G392" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>311.9685714285715</v>
+      </c>
+      <c r="C393" t="n">
+        <v>301.3200000000001</v>
+      </c>
+      <c r="D393" t="n">
+        <v>301.45</v>
+      </c>
+      <c r="E393" t="n">
+        <v>299.8</v>
+      </c>
+      <c r="F393" t="n">
+        <v>317.6218181818182</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>309.2428571428572</v>
+      </c>
+      <c r="C394" t="n">
+        <v>303.78</v>
+      </c>
+      <c r="D394" t="n">
+        <v>304.58</v>
+      </c>
+      <c r="E394" t="n">
+        <v>305.16</v>
+      </c>
+      <c r="F394" t="n">
+        <v>309.2181818181818</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>321.06</v>
+      </c>
+      <c r="C395" t="n">
+        <v>314.16</v>
+      </c>
+      <c r="D395" t="n">
+        <v>309.45</v>
+      </c>
+      <c r="E395" t="n">
+        <v>309.52</v>
+      </c>
+      <c r="F395" t="n">
+        <v>315.259090909091</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:21+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>310.3642857142857</v>
+      </c>
+      <c r="C396" t="n">
+        <v>294.28</v>
+      </c>
+      <c r="D396" t="n">
+        <v>301.93</v>
+      </c>
+      <c r="E396" t="n">
+        <v>306.74</v>
+      </c>
+      <c r="F396" t="n">
+        <v>313.64</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14857,6 +14965,46 @@
       </c>
       <c r="B440" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -15025,28 +15173,28 @@
         <v>0.1016</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4194409547245246</v>
+        <v>-0.3825139542744914</v>
       </c>
       <c r="J2" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K2" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01568273382456664</v>
+        <v>0.01330625190902401</v>
       </c>
       <c r="M2" t="n">
-        <v>21.2615059248137</v>
+        <v>21.18851299799591</v>
       </c>
       <c r="N2" t="n">
-        <v>567.1591673790087</v>
+        <v>563.3971816925816</v>
       </c>
       <c r="O2" t="n">
-        <v>23.81510376586692</v>
+        <v>23.73598916608663</v>
       </c>
       <c r="P2" t="n">
-        <v>307.9815425712789</v>
+        <v>307.6013681353007</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15102,28 +15250,28 @@
         <v>0.0586</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4665129605602762</v>
+        <v>-0.4338818630645173</v>
       </c>
       <c r="J3" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01567374548501488</v>
+        <v>0.01386706562642437</v>
       </c>
       <c r="M3" t="n">
-        <v>20.2107666170157</v>
+        <v>20.06469734316572</v>
       </c>
       <c r="N3" t="n">
-        <v>691.6222626034886</v>
+        <v>685.3023996083756</v>
       </c>
       <c r="O3" t="n">
-        <v>26.29871218526657</v>
+        <v>26.17828106672353</v>
       </c>
       <c r="P3" t="n">
-        <v>302.1849360331138</v>
+        <v>301.845191407184</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15179,28 +15327,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6801895242041041</v>
+        <v>-0.6854745555678761</v>
       </c>
       <c r="J4" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K4" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1345178195549458</v>
+        <v>0.1388884613524056</v>
       </c>
       <c r="M4" t="n">
-        <v>8.740762104309686</v>
+        <v>8.687113362480559</v>
       </c>
       <c r="N4" t="n">
-        <v>151.0728663589206</v>
+        <v>149.5293327025645</v>
       </c>
       <c r="O4" t="n">
-        <v>12.29117025994354</v>
+        <v>12.22821870521478</v>
       </c>
       <c r="P4" t="n">
-        <v>324.0024056683501</v>
+        <v>324.0565221835687</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15256,28 +15404,28 @@
         <v>0.0568</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5016762986274439</v>
+        <v>-0.5036793976203794</v>
       </c>
       <c r="J5" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K5" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1277006084350056</v>
+        <v>0.1309262031395085</v>
       </c>
       <c r="M5" t="n">
-        <v>7.433353788892127</v>
+        <v>7.380648554921482</v>
       </c>
       <c r="N5" t="n">
-        <v>86.69995499034376</v>
+        <v>85.86671548639312</v>
       </c>
       <c r="O5" t="n">
-        <v>9.311281060645939</v>
+        <v>9.266429489635861</v>
       </c>
       <c r="P5" t="n">
-        <v>318.9658990813135</v>
+        <v>318.986335247192</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15333,28 +15481,28 @@
         <v>0.0608</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3052121563735037</v>
+        <v>-0.313458863688538</v>
       </c>
       <c r="J6" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K6" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05140053606068762</v>
+        <v>0.05507415382445235</v>
       </c>
       <c r="M6" t="n">
-        <v>7.335227786847129</v>
+        <v>7.292938210028566</v>
       </c>
       <c r="N6" t="n">
-        <v>86.78846178430841</v>
+        <v>86.06009762788109</v>
       </c>
       <c r="O6" t="n">
-        <v>9.316032513055566</v>
+        <v>9.276858176553153</v>
       </c>
       <c r="P6" t="n">
-        <v>325.3948312322942</v>
+        <v>325.4798558839985</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15391,7 +15539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28719,6 +28867,154 @@
         </is>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-45.12208448764547,170.98059273661733</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-45.122345717006674,170.97972379382594</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-45.12279434743809,170.97900681856365</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-45.123242304091754,170.97833886136132</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-45.123822360227265,170.97788285961607</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-45.12206330404451,170.98057527044952</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-45.12236374325306,170.97974194427817</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-45.12281518491251,170.9790335879034</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-45.12327640886082,170.97838704095628</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-45.12376990687953,170.9778059105795</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-45.12215514404055,170.98065099388563</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-45.12243980518927,170.97981853045764</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-45.122847606146706,170.97907523864004</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-45.12330415078543,170.97842623186315</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-45.12380761269328,170.97786122496893</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:21+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-45.12207201952005,170.98058245647613</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-45.12229412968487,170.97967185113095</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-45.122797542961706,170.97901092376466</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-45.123286462128576,170.97840124316124</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-45.12379750674331,170.97784639954003</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -15018,7 +15018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15109,35 +15109,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15196,27 +15201,28 @@
       <c r="P2" t="n">
         <v>307.6013681353007</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.97859374877072 -45.11965992599996, 170.98424528725664 -45.12651403817536)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.9785937487707</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.11965992599996</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.9842452872566</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.12651403817536</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.9814195180137</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.12308698208766</v>
       </c>
     </row>
@@ -15273,27 +15279,28 @@
       <c r="P3" t="n">
         <v>301.845191407184</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.97750067053624 -45.12013770094726, 170.9840085554997 -45.12660076902634)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.9775006705362</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.12013770094726</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.9840085554997</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.12660076902634</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.980754613018</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.1233692349868</v>
       </c>
     </row>
@@ -15350,27 +15357,28 @@
       <c r="P4" t="n">
         <v>324.0565221835687</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.9764287571825 -45.12078746412817, 170.9839732933967 -45.126659930285655)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.9764287571825</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.12078746412817</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.9839732933967</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.12665993028565</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.9802010252896</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.12372369720691</v>
       </c>
     </row>
@@ -15427,27 +15435,28 @@
       <c r="P5" t="n">
         <v>318.986335247192</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.97564413145366 -45.121334696567615, 170.98357385466733 -45.126947633693646)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.9756441314537</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.12133469656762</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.9835738546673</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.12694763369365</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.9796089930605</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.12414116513063</v>
       </c>
     </row>
@@ -15504,27 +15513,28 @@
       <c r="P6" t="n">
         <v>325.4798558839985</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.97497461055949 -45.121839811456155, 170.98305257584158 -45.12734603227063)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.9749746105595</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.12183981145616</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.9830525758416</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.12734603227063</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.9790135932005</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.1245929218634</v>
       </c>
     </row>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G396"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10541,6 +10541,87 @@
         <v>313.64</v>
       </c>
       <c r="G396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>297.5471428571428</v>
+      </c>
+      <c r="C397" t="n">
+        <v>293.59</v>
+      </c>
+      <c r="D397" t="n">
+        <v>300.78</v>
+      </c>
+      <c r="E397" t="n">
+        <v>297.45</v>
+      </c>
+      <c r="F397" t="n">
+        <v>301.3118181818182</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:05+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>305.9314285714286</v>
+      </c>
+      <c r="C398" t="n">
+        <v>287.38</v>
+      </c>
+      <c r="D398" t="n">
+        <v>293.29</v>
+      </c>
+      <c r="E398" t="n">
+        <v>283.07</v>
+      </c>
+      <c r="F398" t="n">
+        <v>295.4027272727272</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>273.5671428571428</v>
+      </c>
+      <c r="C399" t="n">
+        <v>266.49</v>
+      </c>
+      <c r="D399" t="n">
+        <v>307.11</v>
+      </c>
+      <c r="E399" t="n">
+        <v>292.87</v>
+      </c>
+      <c r="F399" t="n">
+        <v>314.7227272727272</v>
+      </c>
+      <c r="G399" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10557,7 +10638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B444"/>
+  <dimension ref="A1:B447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15005,6 +15086,36 @@
       </c>
       <c r="B444" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-0.92</v>
       </c>
     </row>
   </sheetData>
@@ -15178,28 +15289,28 @@
         <v>0.1016</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3825139542744914</v>
+        <v>-0.3920833603706328</v>
       </c>
       <c r="J2" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01330625190902401</v>
+        <v>0.01416663150627828</v>
       </c>
       <c r="M2" t="n">
-        <v>21.18851299799591</v>
+        <v>21.09438977054884</v>
       </c>
       <c r="N2" t="n">
-        <v>563.3971816925816</v>
+        <v>560.2069967185633</v>
       </c>
       <c r="O2" t="n">
-        <v>23.73598916608663</v>
+        <v>23.6686923322469</v>
       </c>
       <c r="P2" t="n">
-        <v>307.6013681353007</v>
+        <v>307.7014260723579</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15256,28 +15367,28 @@
         <v>0.0586</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4338818630645173</v>
+        <v>-0.4493618320399978</v>
       </c>
       <c r="J3" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01386706562642437</v>
+        <v>0.01509330098996353</v>
       </c>
       <c r="M3" t="n">
-        <v>20.06469734316572</v>
+        <v>19.98887611979886</v>
       </c>
       <c r="N3" t="n">
-        <v>685.3023996083756</v>
+        <v>680.529098678745</v>
       </c>
       <c r="O3" t="n">
-        <v>26.17828106672353</v>
+        <v>26.08695265221189</v>
       </c>
       <c r="P3" t="n">
-        <v>301.845191407184</v>
+        <v>302.0088116838521</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15334,28 +15445,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6854745555678761</v>
+        <v>-0.6955981649914019</v>
       </c>
       <c r="J4" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K4" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1388884613524056</v>
+        <v>0.1440678949819967</v>
       </c>
       <c r="M4" t="n">
-        <v>8.687113362480559</v>
+        <v>8.675342057391436</v>
       </c>
       <c r="N4" t="n">
-        <v>149.5293327025645</v>
+        <v>148.8401839783208</v>
       </c>
       <c r="O4" t="n">
-        <v>12.22821870521478</v>
+        <v>12.20000754009278</v>
       </c>
       <c r="P4" t="n">
-        <v>324.0565221835687</v>
+        <v>324.1614568127831</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15412,28 +15523,28 @@
         <v>0.0568</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5036793976203794</v>
+        <v>-0.5285053160296862</v>
       </c>
       <c r="J5" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1309262031395085</v>
+        <v>0.1413067470136016</v>
       </c>
       <c r="M5" t="n">
-        <v>7.380648554921482</v>
+        <v>7.436102725433156</v>
       </c>
       <c r="N5" t="n">
-        <v>85.86671548639312</v>
+        <v>87.28889623868479</v>
       </c>
       <c r="O5" t="n">
-        <v>9.266429489635861</v>
+        <v>9.342852682060485</v>
       </c>
       <c r="P5" t="n">
-        <v>318.986335247192</v>
+        <v>319.2458411900745</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15490,28 +15601,28 @@
         <v>0.0608</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.313458863688538</v>
+        <v>-0.336075973801101</v>
       </c>
       <c r="J6" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K6" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05507415382445235</v>
+        <v>0.06237929242119777</v>
       </c>
       <c r="M6" t="n">
-        <v>7.292938210028566</v>
+        <v>7.343016861606285</v>
       </c>
       <c r="N6" t="n">
-        <v>86.06009762788109</v>
+        <v>87.41679102316928</v>
       </c>
       <c r="O6" t="n">
-        <v>9.276858176553153</v>
+        <v>9.349694702137032</v>
       </c>
       <c r="P6" t="n">
-        <v>325.4798558839985</v>
+        <v>325.715480040637</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15549,7 +15660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G396"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29025,6 +29136,117 @@
         </is>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-45.12197240771554,170.98050032535534</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-45.1222890735399,170.9796667601616</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-45.12278988701948,170.979001088388</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-45.123227351434984,170.978317737863</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-45.12372055733538,170.97773351501712</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:05+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-45.122037568408494,170.98055405108667</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-45.122243568225514,170.97962094147744</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-45.122740023514886,170.97893703021668</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-45.12313585381949,170.97818848027129</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-45.12368367423921,170.9776794078025</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-45.121786040674436,170.980346664388</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-45.122090491444055,170.97946681120078</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-45.1228320279785,170.97905522575454</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-45.12319820965058,170.97827656954482</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-45.1238042648493,170.97785631368086</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10624,6 +10624,60 @@
       <c r="G399" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>287.7528571428572</v>
+      </c>
+      <c r="C400" t="n">
+        <v>272.07</v>
+      </c>
+      <c r="D400" t="n">
+        <v>299.91</v>
+      </c>
+      <c r="E400" t="n">
+        <v>305.76</v>
+      </c>
+      <c r="F400" t="n">
+        <v>313.8436363636364</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>288.4585714285714</v>
+      </c>
+      <c r="C401" t="n">
+        <v>267.74</v>
+      </c>
+      <c r="D401" t="n">
+        <v>302.35</v>
+      </c>
+      <c r="E401" t="n">
+        <v>301.05</v>
+      </c>
+      <c r="F401" t="n">
+        <v>311.8</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15116,6 +15170,26 @@
       </c>
       <c r="B447" t="n">
         <v>-0.92</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -15289,28 +15363,28 @@
         <v>0.1016</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3920833603706328</v>
+        <v>-0.4030532053018182</v>
       </c>
       <c r="J2" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01416663150627828</v>
+        <v>0.01511609614256637</v>
       </c>
       <c r="M2" t="n">
-        <v>21.09438977054884</v>
+        <v>21.02401381625301</v>
       </c>
       <c r="N2" t="n">
-        <v>560.2069967185633</v>
+        <v>557.3340910452175</v>
       </c>
       <c r="O2" t="n">
-        <v>23.6686923322469</v>
+        <v>23.60792432733589</v>
       </c>
       <c r="P2" t="n">
-        <v>307.7014260723579</v>
+        <v>307.8162544085841</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15367,28 +15441,28 @@
         <v>0.0586</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4493618320399978</v>
+        <v>-0.4747416386364948</v>
       </c>
       <c r="J3" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01509330098996353</v>
+        <v>0.01695440836304918</v>
       </c>
       <c r="M3" t="n">
-        <v>19.98887611979886</v>
+        <v>20.02744149442023</v>
       </c>
       <c r="N3" t="n">
-        <v>680.529098678745</v>
+        <v>678.8254420128668</v>
       </c>
       <c r="O3" t="n">
-        <v>26.08695265221189</v>
+        <v>26.05427876593146</v>
       </c>
       <c r="P3" t="n">
-        <v>302.0088116838521</v>
+        <v>302.2776674548102</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15445,28 +15519,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6955981649914019</v>
+        <v>-0.7012521827239323</v>
       </c>
       <c r="J4" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1440678949819967</v>
+        <v>0.1473638862585243</v>
       </c>
       <c r="M4" t="n">
-        <v>8.675342057391436</v>
+        <v>8.658953599405793</v>
       </c>
       <c r="N4" t="n">
-        <v>148.8401839783208</v>
+        <v>148.1587839699726</v>
       </c>
       <c r="O4" t="n">
-        <v>12.20000754009278</v>
+        <v>12.17204929212713</v>
       </c>
       <c r="P4" t="n">
-        <v>324.1614568127831</v>
+        <v>324.2203178662912</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15523,28 +15597,28 @@
         <v>0.0568</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5285053160296862</v>
+        <v>-0.5309811486974084</v>
       </c>
       <c r="J5" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1413067470136016</v>
+        <v>0.1437363956131562</v>
       </c>
       <c r="M5" t="n">
-        <v>7.436102725433156</v>
+        <v>7.406957313393829</v>
       </c>
       <c r="N5" t="n">
-        <v>87.28889623868479</v>
+        <v>86.85734822375787</v>
       </c>
       <c r="O5" t="n">
-        <v>9.342852682060485</v>
+        <v>9.319728978020652</v>
       </c>
       <c r="P5" t="n">
-        <v>319.2458411900745</v>
+        <v>319.2718478308747</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15601,28 +15675,28 @@
         <v>0.0608</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.336075973801101</v>
+        <v>-0.3407451159224841</v>
       </c>
       <c r="J6" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06237929242119777</v>
+        <v>0.06461768270300072</v>
       </c>
       <c r="M6" t="n">
-        <v>7.343016861606285</v>
+        <v>7.324755436465575</v>
       </c>
       <c r="N6" t="n">
-        <v>87.41679102316928</v>
+        <v>87.03240830681486</v>
       </c>
       <c r="O6" t="n">
-        <v>9.349694702137032</v>
+        <v>9.329116158930322</v>
       </c>
       <c r="P6" t="n">
-        <v>325.715480040637</v>
+        <v>325.7643528638399</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15660,7 +15734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29247,6 +29321,80 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-45.12189628880465,170.98043756462656</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-45.12213138033082,170.9795079813909</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-45.12278409513219,170.97899364771354</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-45.123280226557625,170.97839243419807</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-45.12379877778933,170.97784826416415</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-45.12190177345304,170.98044208676222</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-45.12209965114214,170.97947603390855</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-45.12280033904477,170.97901451581592</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-45.123250257631064,170.97835009726919</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-45.12378602193325,170.97782955133297</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16998,7 +16998,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-45.122420313406806,170.97979890430764</t>
+          <t>-45.12242031340681,170.97979890430764</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-45.122080601764985,170.9805895326548</t>
+          <t>-45.12208060176498,170.9805895326548</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -24156,7 +24156,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>-45.123372423861426,170.97852268120647</t>
+          <t>-45.12337242386143,170.97852268120647</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -26653,7 +26653,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-45.12236667434978,170.9797448955723</t>
+          <t>-45.12236667434977,170.9797448955723</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -28491,7 +28491,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>-45.12239305421691,170.97977145723286</t>
+          <t>-45.122393054216914,170.97977145723286</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10676,6 +10676,31 @@
         <v>311.8</v>
       </c>
       <c r="G401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>278.5571428571428</v>
+      </c>
+      <c r="C402" t="n">
+        <v>248.67</v>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="n">
+        <v>291.81</v>
+      </c>
+      <c r="F402" t="n">
+        <v>295.2563636363636</v>
+      </c>
+      <c r="G402" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10692,7 +10717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B449"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15190,6 +15215,16 @@
       </c>
       <c r="B449" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -15363,28 +15398,28 @@
         <v>0.1016</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4030532053018182</v>
+        <v>-0.4139079029027966</v>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01511609614256637</v>
+        <v>0.0159886365462093</v>
       </c>
       <c r="M2" t="n">
-        <v>21.02401381625301</v>
+        <v>21.0178605819085</v>
       </c>
       <c r="N2" t="n">
-        <v>557.3340910452175</v>
+        <v>556.7126915615619</v>
       </c>
       <c r="O2" t="n">
-        <v>23.60792432733589</v>
+        <v>23.5947598326739</v>
       </c>
       <c r="P2" t="n">
-        <v>307.8162544085841</v>
+        <v>307.9302584713203</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15441,28 +15476,28 @@
         <v>0.0586</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4747416386364948</v>
+        <v>-0.500213458431171</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01695440836304918</v>
+        <v>0.01875097950923721</v>
       </c>
       <c r="M3" t="n">
-        <v>20.02744149442023</v>
+        <v>20.13213298115391</v>
       </c>
       <c r="N3" t="n">
-        <v>678.8254420128668</v>
+        <v>682.1261016166321</v>
       </c>
       <c r="O3" t="n">
-        <v>26.05427876593146</v>
+        <v>26.11754394304013</v>
       </c>
       <c r="P3" t="n">
-        <v>302.2776674548102</v>
+        <v>302.548357502966</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15522,7 +15557,7 @@
         <v>-0.7012521827239323</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K4" t="n">
         <v>356</v>
@@ -15597,28 +15632,28 @@
         <v>0.0568</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5309811486974084</v>
+        <v>-0.5385245294783392</v>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K5" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1437363956131562</v>
+        <v>0.1471833644527877</v>
       </c>
       <c r="M5" t="n">
-        <v>7.406957313393829</v>
+        <v>7.422984831757732</v>
       </c>
       <c r="N5" t="n">
-        <v>86.85734822375787</v>
+        <v>87.14099915924665</v>
       </c>
       <c r="O5" t="n">
-        <v>9.319728978020652</v>
+        <v>9.334934341453433</v>
       </c>
       <c r="P5" t="n">
-        <v>319.2718478308747</v>
+        <v>319.3512475894582</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15675,28 +15710,28 @@
         <v>0.0608</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3407451159224841</v>
+        <v>-0.352643663144745</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06461768270300072</v>
+        <v>0.06829616786675252</v>
       </c>
       <c r="M6" t="n">
-        <v>7.324755436465575</v>
+        <v>7.362156243523787</v>
       </c>
       <c r="N6" t="n">
-        <v>87.03240830681486</v>
+        <v>88.0964788449821</v>
       </c>
       <c r="O6" t="n">
-        <v>9.329116158930322</v>
+        <v>9.385972450683099</v>
       </c>
       <c r="P6" t="n">
-        <v>325.7643528638399</v>
+        <v>325.8892568365572</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15734,7 +15769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29395,6 +29430,39 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-45.121824821822074,170.98037863962892</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-45.12195991071135,170.97933533259723</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-45.123191465043426,170.97826704151208</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-45.123682760672985,170.97767806760928</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G402"/>
+  <dimension ref="A1:G405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10703,6 +10703,75 @@
       <c r="G402" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="n">
+        <v>300.3918181818182</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>280.9228571428571</v>
+      </c>
+      <c r="C404" t="n">
+        <v>252.11</v>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="n">
+        <v>286.19</v>
+      </c>
+      <c r="F404" t="n">
+        <v>310.07</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>281.4685714285715</v>
+      </c>
+      <c r="C405" t="n">
+        <v>253.48</v>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="n">
+        <v>290.84</v>
+      </c>
+      <c r="F405" t="n">
+        <v>297.6163636363636</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15225,6 +15294,36 @@
       </c>
       <c r="B450" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -15398,28 +15497,28 @@
         <v>0.1016</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4139079029027966</v>
+        <v>-0.4321849510484362</v>
       </c>
       <c r="J2" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K2" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0159886365462093</v>
+        <v>0.01755803653386812</v>
       </c>
       <c r="M2" t="n">
-        <v>21.0178605819085</v>
+        <v>20.9878234643151</v>
       </c>
       <c r="N2" t="n">
-        <v>556.7126915615619</v>
+        <v>554.8744616787277</v>
       </c>
       <c r="O2" t="n">
-        <v>23.5947598326739</v>
+        <v>23.55577342561113</v>
       </c>
       <c r="P2" t="n">
-        <v>307.9302584713203</v>
+        <v>308.1230530682207</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15476,28 +15575,28 @@
         <v>0.0586</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.500213458431171</v>
+        <v>-0.5451009352658044</v>
       </c>
       <c r="J3" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K3" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01875097950923721</v>
+        <v>0.02218144466426608</v>
       </c>
       <c r="M3" t="n">
-        <v>20.13213298115391</v>
+        <v>20.30862399164704</v>
       </c>
       <c r="N3" t="n">
-        <v>682.1261016166321</v>
+        <v>686.3102193812721</v>
       </c>
       <c r="O3" t="n">
-        <v>26.11754394304013</v>
+        <v>26.19752315355923</v>
       </c>
       <c r="P3" t="n">
-        <v>302.548357502966</v>
+        <v>303.0274491338031</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15557,7 +15656,7 @@
         <v>-0.7012521827239323</v>
       </c>
       <c r="J4" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K4" t="n">
         <v>356</v>
@@ -15632,28 +15731,28 @@
         <v>0.0568</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5385245294783392</v>
+        <v>-0.5568868816240289</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K5" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1471833644527877</v>
+        <v>0.1548722822461963</v>
       </c>
       <c r="M5" t="n">
-        <v>7.422984831757732</v>
+        <v>7.471003477123658</v>
       </c>
       <c r="N5" t="n">
-        <v>87.14099915924665</v>
+        <v>88.25179564729206</v>
       </c>
       <c r="O5" t="n">
-        <v>9.334934341453433</v>
+        <v>9.394242686203718</v>
       </c>
       <c r="P5" t="n">
-        <v>319.3512475894582</v>
+        <v>319.5453016616607</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15710,28 +15809,28 @@
         <v>0.0608</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.352643663144745</v>
+        <v>-0.3753778550826429</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K6" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06829616786675252</v>
+        <v>0.07639283636038474</v>
       </c>
       <c r="M6" t="n">
-        <v>7.362156243523787</v>
+        <v>7.414792912873165</v>
       </c>
       <c r="N6" t="n">
-        <v>88.0964788449821</v>
+        <v>89.20751705924702</v>
       </c>
       <c r="O6" t="n">
-        <v>9.385972450683099</v>
+        <v>9.444973110562414</v>
       </c>
       <c r="P6" t="n">
-        <v>325.8892568365572</v>
+        <v>326.1287790681304</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15769,7 +15868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G402"/>
+  <dimension ref="A1:G405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29463,6 +29562,93 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-45.12371481492264,170.9777250909354</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-45.121843207613715,170.98039379881902</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-45.121985118226505,170.9793607133812</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-45.123155705887086,170.97821652499874</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-45.123775223712904,170.97781371036183</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-45.12184744878035,170.9803972956867</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-45.12199515726447,170.97937082143213</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-45.12318529309092,170.97825832246525</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-45.123697491217364,170.97769967718932</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10770,6 +10770,33 @@
         <v>297.6163636363636</v>
       </c>
       <c r="G405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>285.1614285714285</v>
+      </c>
+      <c r="C406" t="n">
+        <v>266.45</v>
+      </c>
+      <c r="D406" t="n">
+        <v>301.3</v>
+      </c>
+      <c r="E406" t="n">
+        <v>295.91</v>
+      </c>
+      <c r="F406" t="n">
+        <v>302.0963636363636</v>
+      </c>
+      <c r="G406" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10786,7 +10813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B453"/>
+  <dimension ref="A1:B454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15324,6 +15351,16 @@
       </c>
       <c r="B453" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -15497,28 +15534,28 @@
         <v>0.1016</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4321849510484362</v>
+        <v>-0.4388718401331624</v>
       </c>
       <c r="J2" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01755803653386812</v>
+        <v>0.01818487514465805</v>
       </c>
       <c r="M2" t="n">
-        <v>20.9878234643151</v>
+        <v>20.9598165970072</v>
       </c>
       <c r="N2" t="n">
-        <v>554.8744616787277</v>
+        <v>553.6156395386562</v>
       </c>
       <c r="O2" t="n">
-        <v>23.55577342561113</v>
+        <v>23.52903821958425</v>
       </c>
       <c r="P2" t="n">
-        <v>308.1230530682207</v>
+        <v>308.1938216014981</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15575,28 +15612,28 @@
         <v>0.0586</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5451009352658044</v>
+        <v>-0.5587461537090966</v>
       </c>
       <c r="J3" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02218144466426608</v>
+        <v>0.0233648080680432</v>
       </c>
       <c r="M3" t="n">
-        <v>20.30862399164704</v>
+        <v>20.33685468001957</v>
       </c>
       <c r="N3" t="n">
-        <v>686.3102193812721</v>
+        <v>685.7077873903658</v>
       </c>
       <c r="O3" t="n">
-        <v>26.19752315355923</v>
+        <v>26.18602274860323</v>
       </c>
       <c r="P3" t="n">
-        <v>303.0274491338031</v>
+        <v>303.1735657730474</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15653,28 +15690,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7012521827239323</v>
+        <v>-0.703888310645812</v>
       </c>
       <c r="J4" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1473638862585243</v>
+        <v>0.1489915964214232</v>
       </c>
       <c r="M4" t="n">
-        <v>8.658953599405793</v>
+        <v>8.649431745607417</v>
       </c>
       <c r="N4" t="n">
-        <v>148.1587839699726</v>
+        <v>147.8060309469063</v>
       </c>
       <c r="O4" t="n">
-        <v>12.17204929212713</v>
+        <v>12.15755036785398</v>
       </c>
       <c r="P4" t="n">
-        <v>324.2203178662912</v>
+        <v>324.248051570637</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15731,28 +15768,28 @@
         <v>0.0568</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5568868816240289</v>
+        <v>-0.5618716062792337</v>
       </c>
       <c r="J5" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1548722822461963</v>
+        <v>0.1576070806129642</v>
       </c>
       <c r="M5" t="n">
-        <v>7.471003477123658</v>
+        <v>7.474516734757589</v>
       </c>
       <c r="N5" t="n">
-        <v>88.25179564729206</v>
+        <v>88.23948419726079</v>
       </c>
       <c r="O5" t="n">
-        <v>9.394242686203718</v>
+        <v>9.393587397648504</v>
       </c>
       <c r="P5" t="n">
-        <v>319.5453016616607</v>
+        <v>319.5981521270638</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15809,28 +15846,28 @@
         <v>0.0608</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3753778550826429</v>
+        <v>-0.383066892961626</v>
       </c>
       <c r="J6" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K6" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07639283636038474</v>
+        <v>0.07924914207653222</v>
       </c>
       <c r="M6" t="n">
-        <v>7.414792912873165</v>
+        <v>7.433560024702063</v>
       </c>
       <c r="N6" t="n">
-        <v>89.20751705924702</v>
+        <v>89.52113648491104</v>
       </c>
       <c r="O6" t="n">
-        <v>9.444973110562414</v>
+        <v>9.461560996205174</v>
       </c>
       <c r="P6" t="n">
-        <v>326.1287790681304</v>
+        <v>326.2100834105169</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15868,7 +15905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29649,6 +29686,43 @@
         </is>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-45.12187614881898,170.98042095905868</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-45.12209019833371,170.97946651607418</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-45.122793348836936,170.97900553568843</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-45.12321755267063,170.97830389523605</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-45.123725454273846,170.97774069879563</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10797,6 +10797,112 @@
         <v>302.0963636363636</v>
       </c>
       <c r="G406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:15+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>271.9485714285714</v>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="n">
+        <v>304.36</v>
+      </c>
+      <c r="E407" t="n">
+        <v>305.1</v>
+      </c>
+      <c r="F407" t="n">
+        <v>321.0281818181818</v>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>292.9314285714286</v>
+      </c>
+      <c r="C408" t="n">
+        <v>293.28</v>
+      </c>
+      <c r="D408" t="n">
+        <v>298.42</v>
+      </c>
+      <c r="E408" t="n">
+        <v>300.89</v>
+      </c>
+      <c r="F408" t="n">
+        <v>300.0736363636364</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>290.1542857142857</v>
+      </c>
+      <c r="C409" t="n">
+        <v>287.18</v>
+      </c>
+      <c r="D409" t="n">
+        <v>303.87</v>
+      </c>
+      <c r="E409" t="n">
+        <v>307.84</v>
+      </c>
+      <c r="F409" t="n">
+        <v>312.8418181818182</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>296.5714285714286</v>
+      </c>
+      <c r="C410" t="n">
+        <v>289.16</v>
+      </c>
+      <c r="D410" t="n">
+        <v>298.71</v>
+      </c>
+      <c r="E410" t="n">
+        <v>291.06</v>
+      </c>
+      <c r="F410" t="n">
+        <v>303.1872727272727</v>
+      </c>
+      <c r="G410" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10813,7 +10919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B454"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15361,6 +15467,46 @@
       </c>
       <c r="B454" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -15534,28 +15680,28 @@
         <v>0.1016</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4388718401331624</v>
+        <v>-0.4585104226405707</v>
       </c>
       <c r="J2" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K2" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01818487514465805</v>
+        <v>0.02019186548173446</v>
       </c>
       <c r="M2" t="n">
-        <v>20.9598165970072</v>
+        <v>20.81236771754249</v>
       </c>
       <c r="N2" t="n">
-        <v>553.6156395386562</v>
+        <v>549.0028437703292</v>
       </c>
       <c r="O2" t="n">
-        <v>23.52903821958425</v>
+        <v>23.43080971222141</v>
       </c>
       <c r="P2" t="n">
-        <v>308.1938216014981</v>
+        <v>308.4024381937747</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15612,28 +15758,28 @@
         <v>0.0586</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5587461537090966</v>
+        <v>-0.556507861863663</v>
       </c>
       <c r="J3" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K3" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0233648080680432</v>
+        <v>0.02359510111747742</v>
       </c>
       <c r="M3" t="n">
-        <v>20.33685468001957</v>
+        <v>20.16014562925106</v>
       </c>
       <c r="N3" t="n">
-        <v>685.7077873903658</v>
+        <v>679.2323422756717</v>
       </c>
       <c r="O3" t="n">
-        <v>26.18602274860323</v>
+        <v>26.06208629936736</v>
       </c>
       <c r="P3" t="n">
-        <v>303.1735657730474</v>
+        <v>303.149497225204</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15690,28 +15836,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.703888310645812</v>
+        <v>-0.7138559144203962</v>
       </c>
       <c r="J4" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K4" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1489915964214232</v>
+        <v>0.1553163273587921</v>
       </c>
       <c r="M4" t="n">
-        <v>8.649431745607417</v>
+        <v>8.608708370278464</v>
       </c>
       <c r="N4" t="n">
-        <v>147.8060309469063</v>
+        <v>146.4786579826668</v>
       </c>
       <c r="O4" t="n">
-        <v>12.15755036785398</v>
+        <v>12.10283677418922</v>
       </c>
       <c r="P4" t="n">
-        <v>324.248051570637</v>
+        <v>324.3534218137669</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15768,28 +15914,28 @@
         <v>0.0568</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5618716062792337</v>
+        <v>-0.5698339905900399</v>
       </c>
       <c r="J5" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K5" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1576070806129642</v>
+        <v>0.1634599316368859</v>
       </c>
       <c r="M5" t="n">
-        <v>7.474516734757589</v>
+        <v>7.448158164510168</v>
       </c>
       <c r="N5" t="n">
-        <v>88.23948419726079</v>
+        <v>87.86369898227099</v>
       </c>
       <c r="O5" t="n">
-        <v>9.393587397648504</v>
+        <v>9.373563835717501</v>
       </c>
       <c r="P5" t="n">
-        <v>319.5981521270638</v>
+        <v>319.6830667643453</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15846,28 +15992,28 @@
         <v>0.0608</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.383066892961626</v>
+        <v>-0.3977071194834864</v>
       </c>
       <c r="J6" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K6" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07924914207653222</v>
+        <v>0.08551013175878641</v>
       </c>
       <c r="M6" t="n">
-        <v>7.433560024702063</v>
+        <v>7.453136562587012</v>
       </c>
       <c r="N6" t="n">
-        <v>89.52113648491104</v>
+        <v>89.79818089524728</v>
       </c>
       <c r="O6" t="n">
-        <v>9.461560996205174</v>
+        <v>9.476190209955016</v>
       </c>
       <c r="P6" t="n">
-        <v>326.2100834105169</v>
+        <v>326.3657274300895</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15905,7 +16051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29723,6 +29869,150 @@
         </is>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:15+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-45.12177346150277,170.98033629281176</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-45.12281372029789,170.97903170635175</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-45.12327602709112,170.97838650163212</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-45.123843621863216,170.9779140504871</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-45.12193653546154,170.98047074833443</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-45.122286801938465,170.97966447291478</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-45.122774175691966,170.97898090449291</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-45.12324923957809,170.97834865907282</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-45.1237128289102,170.97772217746882</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-45.121914952152046,170.98045295270714</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-45.12224210267564,170.97961946583663</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-45.122810458201585,170.97902751562336</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-45.12329346123802,170.97841113077527</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-45.123792524696555,170.9778390908802</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-45.12196482469248,170.98049407307582</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-45.12225661161854,170.97963407468384</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-45.122776106321375,170.9789833847167</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-45.123186692915255,170.97826029998086</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-45.123732263457526,170.9777506878292</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -15671,13 +15671,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0531</v>
+        <v>0.0968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1016</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4585165238875871</v>
@@ -15749,13 +15749,13 @@
         <v>0.2486513529342141</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0419</v>
+        <v>0.0488</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0586</v>
+        <v>0.0795</v>
       </c>
       <c r="I3" t="n">
         <v>-0.5565078618636629</v>
@@ -15827,13 +15827,13 @@
         <v>0.4991908055611719</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0351</v>
+        <v>0.0352</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0417</v>
+        <v>0.0567</v>
       </c>
       <c r="I4" t="n">
         <v>-0.7138559144203962</v>
@@ -15905,13 +15905,13 @@
         <v>0.7494605473722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0477</v>
+        <v>0.0604</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0568</v>
+        <v>0.0703</v>
       </c>
       <c r="I5" t="n">
         <v>-0.5698339905900398</v>
@@ -15983,13 +15983,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0502</v>
+        <v>0.0622</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0608</v>
+        <v>0.0726</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3976718591898179</v>

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.66</v>
+        <v>317.9</v>
       </c>
       <c r="C3" t="n">
         <v>314.7</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316.56</v>
+        <v>316.75</v>
       </c>
       <c r="C4" t="n">
         <v>305.75</v>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>326.53</v>
+        <v>326.29</v>
       </c>
       <c r="C5" t="n">
         <v>310.78</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279.16</v>
+        <v>279.19</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>277.94</v>
+        <v>278.11</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282.57</v>
+        <v>282.69</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>281.45</v>
+        <v>281.38</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>317.07</v>
+        <v>317.2</v>
       </c>
       <c r="C10" t="n">
         <v>315.23</v>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.09</v>
+        <v>319.34</v>
       </c>
       <c r="C11" t="n">
         <v>323.03</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>317.72</v>
+        <v>317.89</v>
       </c>
       <c r="C12" t="n">
         <v>311.37</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>329.58</v>
+        <v>329.46</v>
       </c>
       <c r="C13" t="n">
         <v>309.84</v>
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>312.38</v>
+        <v>312.13</v>
       </c>
       <c r="C15" t="n">
         <v>306.16</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270.58</v>
+        <v>270.8</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>278.7</v>
+        <v>278.85</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>281.23</v>
+        <v>281.31</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>322.74</v>
+        <v>322.58</v>
       </c>
       <c r="C19" t="n">
         <v>308.18</v>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>318.07</v>
+        <v>317.92</v>
       </c>
       <c r="C20" t="n">
         <v>309.38</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>292.44</v>
+        <v>292.24</v>
       </c>
       <c r="C21" t="n">
         <v>302.38</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>279.27</v>
+        <v>279.11</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>273.29</v>
+        <v>273.32</v>
       </c>
       <c r="C24" t="n">
         <v>243.87</v>
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>276.24</v>
+        <v>276.37</v>
       </c>
       <c r="C25" t="n">
         <v>253.25</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>336.39</v>
+        <v>336.27</v>
       </c>
       <c r="C26" t="n">
         <v>311.96</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>314.15</v>
+        <v>314.19</v>
       </c>
       <c r="C27" t="n">
         <v>299.98</v>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>317.71</v>
+        <v>317.77</v>
       </c>
       <c r="C28" t="n">
         <v>313.45</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>285.38</v>
+        <v>285.6</v>
       </c>
       <c r="C30" t="n">
         <v>276.33</v>
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>278.13</v>
+        <v>277.91</v>
       </c>
       <c r="C31" t="n">
         <v>315.61</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>309.23</v>
+        <v>309.19</v>
       </c>
       <c r="C32" t="n">
         <v>314.38</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>310.48</v>
+        <v>310.59</v>
       </c>
       <c r="C33" t="n">
         <v>306.63</v>
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>313.15</v>
+        <v>313.34</v>
       </c>
       <c r="C34" t="n">
         <v>305.47</v>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>316.8</v>
+        <v>316.85</v>
       </c>
       <c r="C35" t="n">
         <v>306.31</v>
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>326.67</v>
+        <v>326.71</v>
       </c>
       <c r="C36" t="n">
         <v>311</v>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>301.47</v>
+        <v>301.46</v>
       </c>
       <c r="C37" t="n">
         <v>308.47</v>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>274.38</v>
+        <v>274.19</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>281.49</v>
+        <v>281.58</v>
       </c>
       <c r="C40" t="n">
         <v>243.37</v>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>278.5</v>
+        <v>278.62</v>
       </c>
       <c r="C41" t="n">
         <v>254.89</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>280.46</v>
+        <v>280.27</v>
       </c>
       <c r="C43" t="n">
         <v>251.31</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>283.3</v>
+        <v>283.12</v>
       </c>
       <c r="C44" t="n">
         <v>296.64</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>320.83</v>
+        <v>320.62</v>
       </c>
       <c r="C46" t="n">
         <v>299.55</v>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>313.44</v>
+        <v>313.55</v>
       </c>
       <c r="C47" t="n">
         <v>310.14</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>320.21</v>
+        <v>320.23</v>
       </c>
       <c r="C48" t="n">
         <v>312.44</v>
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>331.05</v>
+        <v>331.09</v>
       </c>
       <c r="C49" t="n">
         <v>320.29</v>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>321.19</v>
+        <v>321.34</v>
       </c>
       <c r="C50" t="n">
         <v>321.55</v>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>338.65</v>
+        <v>338.38</v>
       </c>
       <c r="C51" t="n">
         <v>322.95</v>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>290.2</v>
+        <v>290.15</v>
       </c>
       <c r="C52" t="n">
         <v>295.87</v>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>283.86</v>
+        <v>283.84</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>267.37</v>
+        <v>267.16</v>
       </c>
       <c r="C55" t="n">
         <v>225.87</v>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>275.95</v>
+        <v>275.84</v>
       </c>
       <c r="C57" t="n">
         <v>239.56</v>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>292.38</v>
+        <v>292.57</v>
       </c>
       <c r="C58" t="n">
         <v>294.68</v>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>323.47</v>
+        <v>323.6</v>
       </c>
       <c r="C59" t="n">
         <v>321.23</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>325.63</v>
+        <v>325.45</v>
       </c>
       <c r="C60" t="n">
         <v>306.67</v>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>336.65</v>
+        <v>336.68</v>
       </c>
       <c r="C61" t="n">
         <v>316.19</v>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>331.2</v>
+        <v>331.05</v>
       </c>
       <c r="C62" t="n">
         <v>296.28</v>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>313.38</v>
+        <v>313.51</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>273.38</v>
+        <v>273.34</v>
       </c>
       <c r="C65" t="n">
         <v>259.05</v>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>267.33</v>
+        <v>267.11</v>
       </c>
       <c r="C66" t="n">
         <v>221.52</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>271.59</v>
+        <v>271.74</v>
       </c>
       <c r="C67" t="n">
         <v>241.3</v>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>271.88</v>
+        <v>271.63</v>
       </c>
       <c r="C68" t="n">
         <v>223.93</v>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>307.51</v>
+        <v>307.72</v>
       </c>
       <c r="C70" t="n">
         <v>313.75</v>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>331.19</v>
+        <v>331.34</v>
       </c>
       <c r="C72" t="n">
         <v>316.28</v>
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>349.73</v>
+        <v>349.51</v>
       </c>
       <c r="C73" t="n">
         <v>321.05</v>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>344.44</v>
+        <v>344.36</v>
       </c>
       <c r="C74" t="n">
         <v>318.14</v>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>323.15</v>
+        <v>323.2</v>
       </c>
       <c r="C75" t="n">
         <v>304.89</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>287.53</v>
+        <v>287.66</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>269.59</v>
+        <v>269.35</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>309.09</v>
+        <v>309.07</v>
       </c>
       <c r="C78" t="n">
         <v>311.95</v>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>310.89</v>
+        <v>310.79</v>
       </c>
       <c r="C79" t="n">
         <v>299.41</v>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>327</v>
+        <v>327.13</v>
       </c>
       <c r="C80" t="n">
         <v>318.57</v>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>336.49</v>
+        <v>336.64</v>
       </c>
       <c r="C81" t="n">
         <v>319.92</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>343.55</v>
+        <v>343.51</v>
       </c>
       <c r="C82" t="n">
         <v>316.84</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>342.87</v>
+        <v>342.71</v>
       </c>
       <c r="C83" t="n">
         <v>314.91</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>345.28</v>
+        <v>345.11</v>
       </c>
       <c r="C84" t="n">
         <v>318.32</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>321.57</v>
+        <v>321.66</v>
       </c>
       <c r="C85" t="n">
         <v>309.02</v>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>313.22</v>
+        <v>313.18</v>
       </c>
       <c r="C86" t="n">
         <v>296.54</v>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>291.56</v>
+        <v>291.74</v>
       </c>
       <c r="C87" t="n">
         <v>294.32</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>282.43</v>
+        <v>282.54</v>
       </c>
       <c r="C88" t="n">
         <v>264.64</v>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>272.17</v>
+        <v>272.12</v>
       </c>
       <c r="C89" t="n">
         <v>228.08</v>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>333.31</v>
+        <v>333.11</v>
       </c>
       <c r="C90" t="n">
         <v>310.28</v>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>334.08</v>
+        <v>333.82</v>
       </c>
       <c r="C91" t="n">
         <v>316.63</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>334.54</v>
+        <v>334.67</v>
       </c>
       <c r="C92" t="n">
         <v>323.07</v>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>325.94</v>
+        <v>325.97</v>
       </c>
       <c r="C93" t="n">
         <v>312.38</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>311.06</v>
+        <v>311.23</v>
       </c>
       <c r="C94" t="n">
         <v>311.87</v>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>338.58</v>
+        <v>338.39</v>
       </c>
       <c r="C95" t="n">
         <v>327.33</v>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>329.55</v>
+        <v>329.47</v>
       </c>
       <c r="C96" t="n">
         <v>313.43</v>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>284.17</v>
+        <v>284.36</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>276.27</v>
+        <v>276.39</v>
       </c>
       <c r="C99" t="n">
         <v>254.41</v>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>280.99</v>
+        <v>281.12</v>
       </c>
       <c r="C100" t="n">
         <v>248.3</v>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>274.9</v>
+        <v>274.72</v>
       </c>
       <c r="C101" t="n">
         <v>260.26</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>286.77</v>
+        <v>286.87</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>271.48</v>
+        <v>271.41</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>314.92</v>
+        <v>314.73</v>
       </c>
       <c r="C107" t="n">
         <v>309.01</v>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>323.96</v>
+        <v>323.9</v>
       </c>
       <c r="C108" t="n">
         <v>303.41</v>
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>328.49</v>
+        <v>328.65</v>
       </c>
       <c r="C109" t="n">
         <v>324.15</v>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>333.63</v>
+        <v>333.53</v>
       </c>
       <c r="C110" t="n">
         <v>316.38</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>323.48</v>
+        <v>323.52</v>
       </c>
       <c r="C111" t="n">
         <v>319.34</v>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>338.6</v>
+        <v>338.47</v>
       </c>
       <c r="C112" t="n">
         <v>311.66</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>318.83</v>
+        <v>318.94</v>
       </c>
       <c r="C113" t="n">
         <v>316.33</v>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>295.13</v>
+        <v>295.24</v>
       </c>
       <c r="C114" t="n">
         <v>303.91</v>
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>285.15</v>
+        <v>285.28</v>
       </c>
       <c r="C115" t="n">
         <v>260.99</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>285.3</v>
+        <v>285.48</v>
       </c>
       <c r="C117" t="n">
         <v>266.42</v>
@@ -3529,7 +3529,9 @@
           <t>2011-08-27 22:07:35+00:00</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>325.34</v>
+      </c>
       <c r="C120" t="n">
         <v>302.94</v>
       </c>
@@ -3548,7 +3550,9 @@
           <t>2011-09-12 22:07:29+00:00</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>337.34</v>
+      </c>
       <c r="C121" t="n">
         <v>324.29</v>
       </c>
@@ -3644,9 +3648,7 @@
           <t>2012-04-23 22:08:28+00:00</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>275.37</v>
-      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
         <v>328.62</v>
@@ -3718,7 +3720,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>328.96</v>
+        <v>329.15</v>
       </c>
       <c r="C128" t="n">
         <v>322.88</v>
@@ -3743,7 +3745,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>318.59</v>
+        <v>318.74</v>
       </c>
       <c r="C129" t="n">
         <v>314.38</v>
@@ -3768,7 +3770,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>331.62</v>
+        <v>331.63</v>
       </c>
       <c r="C130" t="n">
         <v>315.16</v>
@@ -3795,7 +3797,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>269.51</v>
+        <v>269.5</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
@@ -3820,7 +3822,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>274.77</v>
+        <v>274.61</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
@@ -3868,7 +3870,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>274.68</v>
+        <v>274.37</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
@@ -3912,7 +3914,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>283.02</v>
+        <v>283.06</v>
       </c>
       <c r="C136" t="n">
         <v>312.23</v>
@@ -3939,7 +3941,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>318.69</v>
+        <v>318.61</v>
       </c>
       <c r="C137" t="n">
         <v>317.3</v>
@@ -3966,7 +3968,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>303.97</v>
+        <v>304.07</v>
       </c>
       <c r="C138" t="n">
         <v>310.52</v>
@@ -3993,7 +3995,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>305.73</v>
+        <v>305.92</v>
       </c>
       <c r="C139" t="n">
         <v>317.16</v>
@@ -4020,7 +4022,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>308.98</v>
+        <v>309.15</v>
       </c>
       <c r="C140" t="n">
         <v>316.79</v>
@@ -4047,7 +4049,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>340.17</v>
+        <v>339.9</v>
       </c>
       <c r="C141" t="n">
         <v>320.72</v>
@@ -4070,7 +4072,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>331.83</v>
+        <v>331.86</v>
       </c>
       <c r="C142" t="n">
         <v>317.89</v>
@@ -4097,7 +4099,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>334.38</v>
+        <v>334.31</v>
       </c>
       <c r="C143" t="n">
         <v>319.27</v>
@@ -4124,7 +4126,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>317.85</v>
+        <v>317.98</v>
       </c>
       <c r="C144" t="n">
         <v>319.68</v>
@@ -4151,7 +4153,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>306.93</v>
+        <v>307.12</v>
       </c>
       <c r="C145" t="n">
         <v>313.81</v>
@@ -4178,7 +4180,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>317.99</v>
+        <v>318.06</v>
       </c>
       <c r="C146" t="n">
         <v>316.93</v>
@@ -4205,7 +4207,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>333.52</v>
+        <v>333.44</v>
       </c>
       <c r="C147" t="n">
         <v>329.25</v>
@@ -4232,7 +4234,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>307.14</v>
+        <v>307.18</v>
       </c>
       <c r="C148" t="n">
         <v>308.19</v>
@@ -4299,7 +4301,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>264.36</v>
+        <v>264.11</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
@@ -4320,7 +4322,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>271.23</v>
+        <v>270.97</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
@@ -4345,7 +4347,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>283.71</v>
+        <v>283.89</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
@@ -4370,7 +4372,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>264.63</v>
+        <v>264.65</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
@@ -4393,7 +4395,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>283.6</v>
+        <v>283.75</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
@@ -4466,7 +4468,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>318.21</v>
+        <v>318.16</v>
       </c>
       <c r="C158" t="n">
         <v>310.03</v>
@@ -4493,7 +4495,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>330.86</v>
+        <v>330.78</v>
       </c>
       <c r="C159" t="n">
         <v>320.51</v>
@@ -4520,7 +4522,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>319.16</v>
+        <v>319.36</v>
       </c>
       <c r="C160" t="n">
         <v>319.78</v>
@@ -4547,7 +4549,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>320.13</v>
+        <v>320.05</v>
       </c>
       <c r="C161" t="n">
         <v>322.59</v>
@@ -4574,7 +4576,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>333.7</v>
+        <v>333.6</v>
       </c>
       <c r="C162" t="n">
         <v>323.67</v>
@@ -4601,7 +4603,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>337.55</v>
+        <v>337.23</v>
       </c>
       <c r="C163" t="n">
         <v>319.74</v>
@@ -4628,7 +4630,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>310.53</v>
+        <v>310.35</v>
       </c>
       <c r="C164" t="n">
         <v>294.73</v>
@@ -4701,7 +4703,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>318.2</v>
+        <v>318.17</v>
       </c>
       <c r="C167" t="n">
         <v>323.39</v>
@@ -4724,7 +4726,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>286.61</v>
+        <v>286.73</v>
       </c>
       <c r="C168" t="n">
         <v>299.78</v>
@@ -4751,7 +4753,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>274.56</v>
+        <v>274.41</v>
       </c>
       <c r="C169" t="n">
         <v>289.7</v>
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>266.07</v>
+        <v>265.8</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
@@ -4803,7 +4805,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>267.37</v>
+        <v>267.15</v>
       </c>
       <c r="C171" t="n">
         <v>231.22</v>
@@ -4830,7 +4832,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>284.12</v>
+        <v>284.32</v>
       </c>
       <c r="C172" t="n">
         <v>263.06</v>
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>271.2</v>
+        <v>271.06</v>
       </c>
       <c r="C173" t="n">
         <v>247.84</v>
@@ -4884,7 +4886,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>280.89</v>
+        <v>280.97</v>
       </c>
       <c r="C174" t="n">
         <v>250.92</v>
@@ -4911,7 +4913,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>272.42</v>
+        <v>272.31</v>
       </c>
       <c r="C175" t="n">
         <v>239.58</v>
@@ -4938,7 +4940,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>265.32</v>
+        <v>265.36</v>
       </c>
       <c r="C176" t="n">
         <v>257.32</v>
@@ -4965,7 +4967,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>276.47</v>
+        <v>276.39</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
@@ -4990,7 +4992,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>285.56</v>
+        <v>285.7</v>
       </c>
       <c r="C178" t="n">
         <v>320.78</v>
@@ -5017,7 +5019,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>285.3</v>
+        <v>285.48</v>
       </c>
       <c r="C179" t="n">
         <v>293.18</v>
@@ -5044,7 +5046,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>324.02</v>
+        <v>324.01</v>
       </c>
       <c r="C180" t="n">
         <v>314.28</v>
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>331.33</v>
+        <v>331.18</v>
       </c>
       <c r="C182" t="n">
         <v>316</v>
@@ -5121,7 +5123,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>309.66</v>
+        <v>309.84</v>
       </c>
       <c r="C183" t="n">
         <v>300.82</v>
@@ -5148,7 +5150,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>319.18</v>
+        <v>319.36</v>
       </c>
       <c r="C184" t="n">
         <v>320.37</v>
@@ -5175,7 +5177,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>333.2</v>
+        <v>333.27</v>
       </c>
       <c r="C185" t="n">
         <v>318.92</v>
@@ -5202,7 +5204,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>336.76</v>
+        <v>336.65</v>
       </c>
       <c r="C186" t="n">
         <v>312.37</v>
@@ -5229,7 +5231,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>337.7</v>
+        <v>337.62</v>
       </c>
       <c r="C187" t="n">
         <v>314.8</v>
@@ -5256,7 +5258,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>335.06</v>
+        <v>335.23</v>
       </c>
       <c r="C188" t="n">
         <v>324.51</v>
@@ -5283,7 +5285,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>327.39</v>
+        <v>327.54</v>
       </c>
       <c r="C189" t="n">
         <v>320.43</v>
@@ -5310,7 +5312,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>288.71</v>
+        <v>288.69</v>
       </c>
       <c r="C190" t="n">
         <v>311.47</v>
@@ -5337,7 +5339,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>282.14</v>
+        <v>282.1</v>
       </c>
       <c r="C191" t="n">
         <v>294.33</v>
@@ -5364,7 +5366,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>285.53</v>
+        <v>285.68</v>
       </c>
       <c r="C192" t="n">
         <v>272.33</v>
@@ -5391,7 +5393,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>266.07</v>
+        <v>265.78</v>
       </c>
       <c r="C193" t="n">
         <v>227.95</v>
@@ -5416,7 +5418,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>284.28</v>
+        <v>284.49</v>
       </c>
       <c r="C194" t="n">
         <v>264.77</v>
@@ -5443,7 +5445,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>293.04</v>
+        <v>293.1</v>
       </c>
       <c r="C195" t="n">
         <v>276.8</v>
@@ -5470,7 +5472,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>282.33</v>
+        <v>282.39</v>
       </c>
       <c r="C196" t="n">
         <v>273.69</v>
@@ -5493,7 +5495,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>286.88</v>
+        <v>286.78</v>
       </c>
       <c r="C197" t="n">
         <v>306.82</v>
@@ -5545,7 +5547,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>290.02</v>
+        <v>290.17</v>
       </c>
       <c r="C199" t="n">
         <v>310.51</v>
@@ -5572,7 +5574,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>340.64</v>
+        <v>340.55</v>
       </c>
       <c r="C200" t="n">
         <v>321.5</v>
@@ -5599,7 +5601,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>324.25</v>
+        <v>324.32</v>
       </c>
       <c r="C201" t="n">
         <v>315.5</v>
@@ -5626,7 +5628,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>335.85</v>
+        <v>335.73</v>
       </c>
       <c r="C202" t="n">
         <v>323.18</v>
@@ -5653,7 +5655,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>326.91</v>
+        <v>327.05</v>
       </c>
       <c r="C203" t="n">
         <v>320.61</v>
@@ -5680,7 +5682,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>302.85</v>
+        <v>302.96</v>
       </c>
       <c r="C204" t="n">
         <v>296.93</v>
@@ -5707,7 +5709,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>295</v>
+        <v>295.13</v>
       </c>
       <c r="C205" t="n">
         <v>288.87</v>
@@ -5734,7 +5736,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>278.71</v>
+        <v>278.68</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
@@ -5759,7 +5761,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>289.58</v>
+        <v>289.42</v>
       </c>
       <c r="C207" t="n">
         <v>239.01</v>
@@ -5786,7 +5788,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>254.32</v>
+        <v>254.02</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
@@ -5811,7 +5813,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>279.12</v>
+        <v>279.29</v>
       </c>
       <c r="C209" t="n">
         <v>257.69</v>
@@ -5838,7 +5840,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>280.17</v>
+        <v>280.21</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
@@ -5863,7 +5865,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>275.87</v>
+        <v>275.76</v>
       </c>
       <c r="C211" t="n">
         <v>283.39</v>
@@ -5890,7 +5892,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>305.88</v>
+        <v>306.05</v>
       </c>
       <c r="C212" t="n">
         <v>318.98</v>
@@ -5917,7 +5919,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>317.82</v>
+        <v>317.72</v>
       </c>
       <c r="C213" t="n">
         <v>296.92</v>
@@ -5944,7 +5946,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>339</v>
+        <v>338.97</v>
       </c>
       <c r="C214" t="n">
         <v>315.74</v>
@@ -5971,7 +5973,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>339.89</v>
+        <v>339.72</v>
       </c>
       <c r="C215" t="n">
         <v>323.13</v>
@@ -5998,7 +6000,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>325.24</v>
+        <v>325.43</v>
       </c>
       <c r="C216" t="n">
         <v>320.9</v>
@@ -6025,7 +6027,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>328.9</v>
+        <v>328.75</v>
       </c>
       <c r="C217" t="n">
         <v>305.59</v>
@@ -6052,7 +6054,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>312.97</v>
+        <v>312.98</v>
       </c>
       <c r="C218" t="n">
         <v>305.83</v>
@@ -6079,7 +6081,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>301.38</v>
+        <v>301.41</v>
       </c>
       <c r="C219" t="n">
         <v>290.12</v>
@@ -6106,7 +6108,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>293.5</v>
+        <v>293.62</v>
       </c>
       <c r="C220" t="n">
         <v>307.29</v>
@@ -6133,7 +6135,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>321.45</v>
+        <v>321.18</v>
       </c>
       <c r="C221" t="n">
         <v>311.15</v>
@@ -6204,7 +6206,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>282.78</v>
+        <v>282.96</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
@@ -6250,7 +6252,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>267.98</v>
+        <v>267.85</v>
       </c>
       <c r="C226" t="n">
         <v>238.64</v>
@@ -6298,7 +6300,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>263.11</v>
+        <v>262.81</v>
       </c>
       <c r="C228" t="n">
         <v>227.26</v>
@@ -6325,7 +6327,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>280.34</v>
+        <v>280.51</v>
       </c>
       <c r="C229" t="n">
         <v>261.77</v>
@@ -6352,7 +6354,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>260.47</v>
+        <v>260.29</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
@@ -6377,7 +6379,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>277.8</v>
+        <v>277.67</v>
       </c>
       <c r="C231" t="n">
         <v>302.6</v>
@@ -6448,7 +6450,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>314.5</v>
+        <v>314.68</v>
       </c>
       <c r="C234" t="n">
         <v>317.85</v>
@@ -6475,7 +6477,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>330.38</v>
+        <v>330.24</v>
       </c>
       <c r="C235" t="n">
         <v>311.74</v>
@@ -6502,7 +6504,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>303.35</v>
+        <v>303.44</v>
       </c>
       <c r="C236" t="n">
         <v>300.49</v>
@@ -6525,7 +6527,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>301.11</v>
+        <v>301.31</v>
       </c>
       <c r="C237" t="n">
         <v>306.33</v>
@@ -6552,7 +6554,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>336.51</v>
+        <v>336.22</v>
       </c>
       <c r="C238" t="n">
         <v>313.51</v>
@@ -6579,7 +6581,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>319.65</v>
+        <v>319.44</v>
       </c>
       <c r="C239" t="n">
         <v>294.94</v>
@@ -6606,7 +6608,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>304.05</v>
+        <v>304.21</v>
       </c>
       <c r="C240" t="n">
         <v>302.85</v>
@@ -6633,7 +6635,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>327.54</v>
+        <v>327.29</v>
       </c>
       <c r="C241" t="n">
         <v>303.19</v>
@@ -6660,7 +6662,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>330.46</v>
+        <v>330.33</v>
       </c>
       <c r="C242" t="n">
         <v>317.98</v>
@@ -6687,7 +6689,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>316.12</v>
+        <v>316.09</v>
       </c>
       <c r="C243" t="n">
         <v>301.45</v>
@@ -6714,7 +6716,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>333.95</v>
+        <v>333.88</v>
       </c>
       <c r="C244" t="n">
         <v>318.09</v>
@@ -6762,7 +6764,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>288.96</v>
+        <v>288.85</v>
       </c>
       <c r="C246" t="n">
         <v>301.28</v>
@@ -6833,7 +6835,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>271.96</v>
+        <v>271.84</v>
       </c>
       <c r="C249" t="n">
         <v>234.11</v>
@@ -6860,7 +6862,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>275.08</v>
+        <v>275.12</v>
       </c>
       <c r="C250" t="n">
         <v>239.98</v>
@@ -6927,7 +6929,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>261.01</v>
+        <v>260.84</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="n">
@@ -6977,7 +6979,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>282.67</v>
+        <v>282.74</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="n">
@@ -7002,7 +7004,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>313.18</v>
+        <v>313.14</v>
       </c>
       <c r="C256" t="n">
         <v>292.73</v>
@@ -7029,7 +7031,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>342.41</v>
+        <v>342.16</v>
       </c>
       <c r="C257" t="n">
         <v>327.2</v>
@@ -7079,7 +7081,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>331.43</v>
+        <v>331.23</v>
       </c>
       <c r="C259" t="n">
         <v>308.38</v>
@@ -7150,7 +7152,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>333.83</v>
+        <v>333.72</v>
       </c>
       <c r="C262" t="n">
         <v>309.07</v>
@@ -7171,7 +7173,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>330.98</v>
+        <v>330.81</v>
       </c>
       <c r="C263" t="n">
         <v>309.87</v>
@@ -7219,7 +7221,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>333.43</v>
+        <v>333.21</v>
       </c>
       <c r="C265" t="n">
         <v>310.13</v>
@@ -7246,7 +7248,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>338.12</v>
+        <v>337.83</v>
       </c>
       <c r="C266" t="n">
         <v>314.55</v>
@@ -7294,7 +7296,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>298.12</v>
+        <v>298.26</v>
       </c>
       <c r="C268" t="n">
         <v>300.08</v>
@@ -7319,7 +7321,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>305.83</v>
+        <v>305.95</v>
       </c>
       <c r="C269" t="n">
         <v>301.46</v>
@@ -7346,7 +7348,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>287.04</v>
+        <v>287.06</v>
       </c>
       <c r="C270" t="n">
         <v>298.22</v>
@@ -7390,7 +7392,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>278.3</v>
+        <v>278.16</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
@@ -7409,7 +7411,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>273.91</v>
+        <v>274.04</v>
       </c>
       <c r="C273" t="n">
         <v>273.59</v>
@@ -7436,7 +7438,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>273.77</v>
+        <v>273.58</v>
       </c>
       <c r="C274" t="n">
         <v>240.7</v>
@@ -7463,7 +7465,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>268.67</v>
+        <v>268.46</v>
       </c>
       <c r="C275" t="n">
         <v>226.07</v>
@@ -7486,7 +7488,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>269.82</v>
+        <v>269.67</v>
       </c>
       <c r="C276" t="n">
         <v>237.22</v>
@@ -7513,7 +7515,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>270.54</v>
+        <v>270.38</v>
       </c>
       <c r="C277" t="n">
         <v>222.05</v>
@@ -7580,7 +7582,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>279.12</v>
+        <v>279.18</v>
       </c>
       <c r="C280" t="n">
         <v>255.73</v>
@@ -7626,7 +7628,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>282.59</v>
+        <v>282.74</v>
       </c>
       <c r="C282" t="n">
         <v>263.19</v>
@@ -7653,7 +7655,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>283.25</v>
+        <v>283.38</v>
       </c>
       <c r="C283" t="n">
         <v>300.91</v>
@@ -7720,7 +7722,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>293.91</v>
+        <v>293.9</v>
       </c>
       <c r="C286" t="n">
         <v>285.75</v>
@@ -7747,7 +7749,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>318.55</v>
+        <v>318.58</v>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
@@ -7766,7 +7768,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>329.55</v>
+        <v>329.39</v>
       </c>
       <c r="C288" t="n">
         <v>302.17</v>
@@ -7816,7 +7818,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>329.1</v>
+        <v>329.28</v>
       </c>
       <c r="C290" t="n">
         <v>320.95</v>
@@ -7839,7 +7841,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>335.4</v>
+        <v>335.39</v>
       </c>
       <c r="C291" t="n">
         <v>311.55</v>
@@ -7866,7 +7868,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>330.42</v>
+        <v>330.34</v>
       </c>
       <c r="C292" t="n">
         <v>302.09</v>
@@ -7893,7 +7895,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>306.21</v>
+        <v>306.36</v>
       </c>
       <c r="C293" t="n">
         <v>305.7</v>
@@ -7962,7 +7964,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>279.89</v>
+        <v>279.81</v>
       </c>
       <c r="C296" t="n">
         <v>295.78</v>
@@ -7989,7 +7991,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>280.53</v>
+        <v>280.56</v>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr"/>
@@ -8012,7 +8014,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>272.68</v>
+        <v>272.41</v>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="n">
@@ -8037,7 +8039,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>269.37</v>
+        <v>269.18</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr"/>
@@ -8056,7 +8058,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>269.35</v>
+        <v>269.17</v>
       </c>
       <c r="C300" t="n">
         <v>235.18</v>
@@ -8083,7 +8085,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>266.05</v>
+        <v>266.02</v>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="n">
@@ -8127,7 +8129,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>277.6</v>
+        <v>277.69</v>
       </c>
       <c r="C303" t="n">
         <v>252.07</v>
@@ -8148,7 +8150,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>281.21</v>
+        <v>281.3</v>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="n">
@@ -8173,7 +8175,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>260.11</v>
+        <v>259.95</v>
       </c>
       <c r="C305" t="n">
         <v>256.99</v>
@@ -8200,7 +8202,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>285.89</v>
+        <v>286.05</v>
       </c>
       <c r="C306" t="n">
         <v>293.15</v>
@@ -8227,7 +8229,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>288.46</v>
+        <v>288.22</v>
       </c>
       <c r="C307" t="n">
         <v>307.6</v>
@@ -8254,7 +8256,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>282.94</v>
+        <v>283.15</v>
       </c>
       <c r="C308" t="n">
         <v>309.03</v>
@@ -8325,7 +8327,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>322.18</v>
+        <v>322.16</v>
       </c>
       <c r="C311" t="n">
         <v>314.98</v>
@@ -8352,7 +8354,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>331.97</v>
+        <v>331.71</v>
       </c>
       <c r="C312" t="n">
         <v>306.61</v>
@@ -8400,7 +8402,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>332.36</v>
+        <v>332.2</v>
       </c>
       <c r="C314" t="n">
         <v>301.82</v>
@@ -8427,7 +8429,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>314.7</v>
+        <v>314.81</v>
       </c>
       <c r="C315" t="n">
         <v>305.1</v>
@@ -8454,7 +8456,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>329.73</v>
+        <v>329.57</v>
       </c>
       <c r="C316" t="n">
         <v>300.12</v>
@@ -8481,7 +8483,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>310.43</v>
+        <v>310.62</v>
       </c>
       <c r="C317" t="n">
         <v>321.8</v>
@@ -8508,7 +8510,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>336.67</v>
+        <v>336.6</v>
       </c>
       <c r="C318" t="n">
         <v>315.85</v>
@@ -8535,7 +8537,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>322.42</v>
+        <v>322.45</v>
       </c>
       <c r="C319" t="n">
         <v>299.86</v>
@@ -8583,7 +8585,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>308.06</v>
+        <v>308.16</v>
       </c>
       <c r="C321" t="n">
         <v>298.26</v>
@@ -8610,7 +8612,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>332.74</v>
+        <v>332.48</v>
       </c>
       <c r="C322" t="n">
         <v>312.28</v>
@@ -8637,7 +8639,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>326.76</v>
+        <v>326.49</v>
       </c>
       <c r="C323" t="n">
         <v>307.25</v>
@@ -8664,7 +8666,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>300.82</v>
+        <v>300.63</v>
       </c>
       <c r="C324" t="n">
         <v>293.43</v>
@@ -8704,7 +8706,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>278</v>
+        <v>277.96</v>
       </c>
       <c r="C326" t="n">
         <v>294.33</v>
@@ -8731,7 +8733,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>281.39</v>
+        <v>281.38</v>
       </c>
       <c r="C327" t="n">
         <v>261.82</v>
@@ -8758,7 +8760,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>273.11</v>
+        <v>273.08</v>
       </c>
       <c r="C328" t="n">
         <v>232.78</v>
@@ -8781,7 +8783,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>282.43</v>
+        <v>282.56</v>
       </c>
       <c r="C329" t="n">
         <v>286.87</v>
@@ -8848,7 +8850,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>282.48</v>
+        <v>282.58</v>
       </c>
       <c r="C332" t="n">
         <v>258.54</v>
@@ -8869,7 +8871,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>274.07</v>
+        <v>273.8</v>
       </c>
       <c r="C333" t="n">
         <v>240.98</v>
@@ -8896,7 +8898,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>273.33</v>
+        <v>273.16</v>
       </c>
       <c r="C334" t="n">
         <v>237.14</v>
@@ -8923,7 +8925,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>279.87</v>
+        <v>279.91</v>
       </c>
       <c r="C335" t="n">
         <v>266.36</v>
@@ -8996,7 +8998,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>285.85</v>
+        <v>285.74</v>
       </c>
       <c r="C338" t="n">
         <v>296.99</v>
@@ -9023,7 +9025,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>308.25</v>
+        <v>308.09</v>
       </c>
       <c r="C339" t="n">
         <v>290.81</v>
@@ -9069,7 +9071,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>333.97</v>
+        <v>333.71</v>
       </c>
       <c r="C341" t="n">
         <v>309.18</v>
@@ -9096,7 +9098,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>322.87</v>
+        <v>322.7</v>
       </c>
       <c r="C342" t="n">
         <v>292.94</v>
@@ -9123,7 +9125,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>339.39</v>
+        <v>339.16</v>
       </c>
       <c r="C343" t="n">
         <v>319.12</v>
@@ -9150,7 +9152,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>324.95</v>
+        <v>324.93</v>
       </c>
       <c r="C344" t="n">
         <v>318.45</v>
@@ -9177,7 +9179,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>311.32</v>
+        <v>311.28</v>
       </c>
       <c r="C345" t="n">
         <v>303.66</v>
@@ -9223,7 +9225,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>301.39</v>
+        <v>301.49</v>
       </c>
       <c r="C347" t="n">
         <v>297.4</v>
@@ -9250,7 +9252,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>301.23</v>
+        <v>301.18</v>
       </c>
       <c r="C348" t="n">
         <v>297.71</v>
@@ -9277,7 +9279,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>309.42</v>
+        <v>309.27</v>
       </c>
       <c r="C349" t="n">
         <v>300.32</v>
@@ -9304,7 +9306,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>296.36</v>
+        <v>296.43</v>
       </c>
       <c r="C350" t="n">
         <v>292.79</v>
@@ -9331,7 +9333,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>310.4</v>
+        <v>310.2</v>
       </c>
       <c r="C351" t="n">
         <v>310.41</v>
@@ -9358,7 +9360,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>277.27</v>
+        <v>277.24</v>
       </c>
       <c r="C352" t="n">
         <v>305.82</v>
@@ -9385,7 +9387,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>267.93</v>
+        <v>267.96</v>
       </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
@@ -9404,7 +9406,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>284.53</v>
+        <v>284.71</v>
       </c>
       <c r="C354" t="n">
         <v>289.92</v>
@@ -9431,7 +9433,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>278.96</v>
+        <v>278.72</v>
       </c>
       <c r="C355" t="n">
         <v>297</v>
@@ -9458,7 +9460,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>276.28</v>
+        <v>276.1</v>
       </c>
       <c r="C356" t="n">
         <v>274.46</v>
@@ -9485,7 +9487,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>279.75</v>
+        <v>279.6</v>
       </c>
       <c r="C357" t="n">
         <v>260.64</v>
@@ -9512,7 +9514,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>278.87</v>
+        <v>278.89</v>
       </c>
       <c r="C358" t="n">
         <v>254.16</v>
@@ -9539,7 +9541,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>277.35</v>
+        <v>277.31</v>
       </c>
       <c r="C359" t="n">
         <v>246.51</v>
@@ -9566,7 +9568,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>282.72</v>
+        <v>282.85</v>
       </c>
       <c r="C360" t="n">
         <v>249.18</v>
@@ -9593,7 +9595,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>267.17</v>
+        <v>266.92</v>
       </c>
       <c r="C361" t="n">
         <v>229.38</v>
@@ -9620,7 +9622,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>303.62</v>
+        <v>303.81</v>
       </c>
       <c r="C362" t="n">
         <v>294.61</v>
@@ -9647,7 +9649,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>283.19</v>
+        <v>283.36</v>
       </c>
       <c r="C363" t="n">
         <v>265.84</v>
@@ -9674,7 +9676,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>280.05</v>
+        <v>280.07</v>
       </c>
       <c r="C364" t="n">
         <v>272.1</v>
@@ -9701,7 +9703,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>279.66</v>
+        <v>279.59</v>
       </c>
       <c r="C365" t="n">
         <v>280.43</v>
@@ -9728,7 +9730,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>286.35</v>
+        <v>286.36</v>
       </c>
       <c r="C366" t="n">
         <v>283.01</v>
@@ -9801,7 +9803,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>299.91</v>
+        <v>299.64</v>
       </c>
       <c r="C369" t="n">
         <v>285.88</v>
@@ -9828,7 +9830,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>323.41</v>
+        <v>323.22</v>
       </c>
       <c r="C370" t="n">
         <v>300.91</v>
@@ -9855,7 +9857,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>311.75</v>
+        <v>311.81</v>
       </c>
       <c r="C371" t="n">
         <v>310.74</v>
@@ -9882,7 +9884,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>307.58</v>
+        <v>307.57</v>
       </c>
       <c r="C372" t="n">
         <v>292.24</v>
@@ -9909,7 +9911,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>317.59</v>
+        <v>317.4</v>
       </c>
       <c r="C373" t="n">
         <v>307.31</v>
@@ -9934,7 +9936,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>313.1</v>
+        <v>313.05</v>
       </c>
       <c r="C374" t="n">
         <v>298.53</v>
@@ -9961,7 +9963,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>306.36</v>
+        <v>306.52</v>
       </c>
       <c r="C375" t="n">
         <v>302.27</v>
@@ -9988,7 +9990,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>329.21</v>
+        <v>329.47</v>
       </c>
       <c r="C376" t="n">
         <v>325.07</v>
@@ -10015,7 +10017,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>303.83</v>
+        <v>304.01</v>
       </c>
       <c r="C377" t="n">
         <v>305.65</v>
@@ -10042,7 +10044,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>311.98</v>
+        <v>311.8</v>
       </c>
       <c r="C378" t="n">
         <v>290.13</v>
@@ -10069,7 +10071,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>301.42</v>
+        <v>301.54</v>
       </c>
       <c r="C379" t="n">
         <v>298.23</v>
@@ -10096,7 +10098,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>323.77</v>
+        <v>323.6</v>
       </c>
       <c r="C380" t="n">
         <v>294.08</v>
@@ -10123,7 +10125,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>306.02</v>
+        <v>305.99</v>
       </c>
       <c r="C381" t="n">
         <v>294.57</v>
@@ -10150,7 +10152,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>303.8</v>
+        <v>303.77</v>
       </c>
       <c r="C382" t="n">
         <v>295.74</v>
@@ -10177,7 +10179,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>287.17</v>
+        <v>287.32</v>
       </c>
       <c r="C383" t="n">
         <v>293.36</v>
@@ -10204,7 +10206,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>276.11</v>
+        <v>275.92</v>
       </c>
       <c r="C384" t="n">
         <v>276.57</v>
@@ -10231,7 +10233,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>273.63</v>
+        <v>273.45</v>
       </c>
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="n">
@@ -10256,7 +10258,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>278.04</v>
+        <v>278.05</v>
       </c>
       <c r="C386" t="n">
         <v>250.12</v>
@@ -10283,7 +10285,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>284.65</v>
+        <v>284.6</v>
       </c>
       <c r="C387" t="n">
         <v>281.52</v>
@@ -10308,7 +10310,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>283.58</v>
+        <v>283.59</v>
       </c>
       <c r="C388" t="n">
         <v>289.97</v>
@@ -10335,7 +10337,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>292.32</v>
+        <v>292.28</v>
       </c>
       <c r="C389" t="n">
         <v>288.25</v>
@@ -10362,7 +10364,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>298</v>
+        <v>298.01</v>
       </c>
       <c r="C390" t="n">
         <v>292.95</v>
@@ -10389,7 +10391,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>297.81</v>
+        <v>297.95</v>
       </c>
       <c r="C391" t="n">
         <v>296.22</v>
@@ -10416,7 +10418,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>299.11</v>
+        <v>299.23</v>
       </c>
       <c r="C392" t="n">
         <v>294.38</v>
@@ -10443,7 +10445,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>314.17</v>
+        <v>314.08</v>
       </c>
       <c r="C393" t="n">
         <v>302.39</v>
@@ -10470,7 +10472,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>306.29</v>
+        <v>306.41</v>
       </c>
       <c r="C394" t="n">
         <v>302.35</v>
@@ -10497,7 +10499,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>317.69</v>
+        <v>317.83</v>
       </c>
       <c r="C395" t="n">
         <v>312.53</v>
@@ -10524,7 +10526,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>308.09</v>
+        <v>308.19</v>
       </c>
       <c r="C396" t="n">
         <v>293.18</v>
@@ -10551,7 +10553,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>295.21</v>
+        <v>295.31</v>
       </c>
       <c r="C397" t="n">
         <v>292.46</v>
@@ -10578,7 +10580,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>309.99</v>
+        <v>309.82</v>
       </c>
       <c r="C398" t="n">
         <v>289.35</v>
@@ -10605,7 +10607,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>279.9</v>
+        <v>279.63</v>
       </c>
       <c r="C399" t="n">
         <v>269.56</v>
@@ -10632,7 +10634,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>283.83</v>
+        <v>283.99</v>
       </c>
       <c r="C400" t="n">
         <v>270.17</v>
@@ -10659,7 +10661,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>283.92</v>
+        <v>284.11</v>
       </c>
       <c r="C401" t="n">
         <v>265.54</v>
@@ -10686,7 +10688,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>277.18</v>
+        <v>277.24</v>
       </c>
       <c r="C402" t="n">
         <v>248</v>
@@ -10730,7 +10732,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>279.41</v>
+        <v>279.47</v>
       </c>
       <c r="C404" t="n">
         <v>251.38</v>
@@ -10755,7 +10757,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>279.34</v>
+        <v>279.42</v>
       </c>
       <c r="C405" t="n">
         <v>252.45</v>
@@ -10780,7 +10782,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>281.52</v>
+        <v>281.67</v>
       </c>
       <c r="C406" t="n">
         <v>264.68</v>
@@ -10807,7 +10809,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>276.56</v>
+        <v>276.37</v>
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="n">
@@ -10832,7 +10834,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>289.77</v>
+        <v>289.9</v>
       </c>
       <c r="C408" t="n">
         <v>291.75</v>
@@ -10859,7 +10861,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>294.63</v>
+        <v>294.44</v>
       </c>
       <c r="C409" t="n">
         <v>289.35</v>
@@ -10886,7 +10888,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>296.3</v>
+        <v>296.31</v>
       </c>
       <c r="C410" t="n">
         <v>289.03</v>
@@ -10913,7 +10915,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>296.28</v>
+        <v>296.43</v>
       </c>
       <c r="C411" t="n">
         <v>291.59</v>
@@ -10940,7 +10942,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>300.25</v>
+        <v>300.38</v>
       </c>
       <c r="C412" t="n">
         <v>300.71</v>
@@ -15752,28 +15754,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4032044349208378</v>
+        <v>-0.4224082665908844</v>
       </c>
       <c r="J2" t="n">
         <v>411</v>
       </c>
       <c r="K2" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01601235611888174</v>
+        <v>0.01748998019837134</v>
       </c>
       <c r="M2" t="n">
-        <v>20.71915422871786</v>
+        <v>20.72096213841827</v>
       </c>
       <c r="N2" t="n">
-        <v>542.4215723257287</v>
+        <v>543.2149024295376</v>
       </c>
       <c r="O2" t="n">
-        <v>23.28994573470983</v>
+        <v>23.30697111229895</v>
       </c>
       <c r="P2" t="n">
-        <v>307.6662506504803</v>
+        <v>308.2070787149775</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16217,7 +16219,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-45.12212872006201,170.98062920689566</t>
+          <t>-45.122130585284154,170.98063074480018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -16254,7 +16256,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-45.12212017112694,170.98062215816785</t>
+          <t>-45.122121647761205,170.98062337567524</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -16291,7 +16293,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-45.122197655550714,170.98068604534942</t>
+          <t>-45.12219579032927,170.98068450744134</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -16328,7 +16330,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-45.12182950709041,170.98038250265833</t>
+          <t>-45.12182974024357,170.98038269489442</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -16361,7 +16363,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-45.12182002552829,170.98037468505916</t>
+          <t>-45.12182134672959,170.9803757743966</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -16394,7 +16396,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-45.12185600883103,170.98040435350237</t>
+          <t>-45.12185694144354,170.9804051224474</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -16427,7 +16429,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-45.12184730444745,170.98039717668337</t>
+          <t>-45.121846760423466,170.98039672813223</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -16460,7 +16462,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-45.12212413472416,170.98062542621412</t>
+          <t>-45.122125145052856,170.98062625924558</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -16497,7 +16499,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-45.122139833676975,170.98063837024492</t>
+          <t>-45.122141776616594,170.9806399722294</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -16534,7 +16536,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-45.12212918636755,170.98062959137178</t>
+          <t>-45.12213050756657,170.98063068072082</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -16571,7 +16573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-45.12222135940482,170.98070558960654</t>
+          <t>-45.122220426794215,170.98070482065188</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -16641,7 +16643,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-45.12208768516993,170.98059537302115</t>
+          <t>-45.122085742229736,170.98059377103962</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -16678,7 +16680,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-45.12176282527396,170.98032752320358</t>
+          <t>-45.12176453506444,170.98032893293163</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -16707,7 +16709,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-45.12182593207525,170.98037955503867</t>
+          <t>-45.12182709784106,170.98038051621896</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -16740,7 +16742,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-45.12184559465777,170.98039576695132</t>
+          <t>-45.121846216399476,170.98039627958113</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -16773,7 +16775,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-45.122168200593194,170.98066175922918</t>
+          <t>-45.12216695711203,170.98066073395816</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -16810,7 +16812,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-45.122131906483155,170.98063183414928</t>
+          <t>-45.12213074071934,170.9806308729589</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -16847,7 +16849,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-45.12193271619299,170.980467599313</t>
+          <t>-45.12193116183948,170.98046631773462</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -16884,7 +16886,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-45.121830361985324,170.98038320752394</t>
+          <t>-45.12182911850181,170.9803821822649</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -16954,7 +16956,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-45.12178388678278,170.98034488849558</t>
+          <t>-45.121784119936,170.98034508073135</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -16991,7 +16993,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-45.12180681351465,170.98036379168752</t>
+          <t>-45.12180782384514,170.9803646247099</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -17028,7 +17030,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-45.12227428504801,170.98074922782519</t>
+          <t>-45.12227335243768,170.9807484588691</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -17065,7 +17067,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-45.12210144118595,170.98060671505328</t>
+          <t>-45.12210175205636,170.98060697137046</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -17102,7 +17104,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-45.122129108649965,170.98062952729242</t>
+          <t>-45.122129574955494,170.98062991176857</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -17164,7 +17166,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-45.121877847505836,170.9804223596381</t>
+          <t>-45.12187955729521,170.98042376937173</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -17201,7 +17203,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-45.12182150216503,170.98037590255396</t>
+          <t>-45.12181979237512,170.98037449282316</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -17238,7 +17240,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-45.122063204121865,170.98057518806195</t>
+          <t>-45.12206289325138,170.98057493174514</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -17275,7 +17277,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-45.122072918823875,170.98058319796436</t>
+          <t>-45.12207377371764,170.9805839028359</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -17312,7 +17314,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-45.12209366942561,170.98060030712486</t>
+          <t>-45.122095146060104,170.98060152463114</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -17349,7 +17351,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-45.12212203634917,170.98062369607192</t>
+          <t>-45.12212242493714,170.9806240164686</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -17386,7 +17388,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-45.12219874359654,170.9806869424625</t>
+          <t>-45.12219905446679,170.98068719878054</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -17415,7 +17417,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-45.122002895239866,170.9805254626479</t>
+          <t>-45.12200281752223,170.98052539856883</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -17485,7 +17487,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-45.12179235801625,170.98035187306306</t>
+          <t>-45.12179088137926,170.9803506555695</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -17518,7 +17520,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-45.121847615318295,170.9803974329983</t>
+          <t>-45.12184831477772,170.98039800970687</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -17555,7 +17557,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-45.12182437772079,170.98037827346502</t>
+          <t>-45.12182531033346,170.9803790424092</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -17617,7 +17619,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-45.12183961039376,170.98039083288978</t>
+          <t>-45.121838133757144,170.98038961539424</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -17654,7 +17656,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-45.12186168222368,170.98040903125164</t>
+          <t>-45.12186028330496,170.98040787783393</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -17720,7 +17722,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-45.12215335653624,170.98064952005922</t>
+          <t>-45.12215172446706,170.98064817439172</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -17757,7 +17759,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-45.122095923236145,170.98060216542393</t>
+          <t>-45.122096778129794,170.980602870296</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -17794,7 +17796,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-45.122148538046275,170.98064554713628</t>
+          <t>-45.122148693481435,170.98064567529508</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -17831,7 +17833,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-45.12223278388419,170.98071500930337</t>
+          <t>-45.12223309475437,170.9807152656217</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -17868,7 +17870,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-45.12215615436906,170.980651826918</t>
+          <t>-45.122157320132715,170.9806527881092</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -17905,7 +17907,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-45.12229184920804,170.98076370983603</t>
+          <t>-45.12228975083503,170.98076197968385</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -17942,7 +17944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-45.12191530743289,170.98045324563915</t>
+          <t>-45.12191491884447,170.98045292524475</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -17979,7 +17981,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-45.12186603441518,170.98041261966264</t>
+          <t>-45.12186587897977,170.98041249150512</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -18033,7 +18035,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-45.12173787787467,170.9803069539995</t>
+          <t>-45.1217362458017,170.98030560835127</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -18095,7 +18097,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-45.12180455970045,170.98036193340698</t>
+          <t>-45.121803704805416,170.98036122854197</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -18132,7 +18134,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-45.12193224988694,170.98046721483945</t>
+          <t>-45.12193372652276,170.98046843233897</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -18169,7 +18171,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-45.12217387397589,170.9806664370288</t>
+          <t>-45.1221748843043,170.9806672700617</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -18206,7 +18208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-45.12219066097022,170.9806802781946</t>
+          <t>-45.12218926205408,170.98067912476384</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -18243,7 +18245,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-45.122276305703664,170.98075089389678</t>
+          <t>-45.12227653885624,170.98075108613583</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -18280,7 +18282,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-45.12223394964736,170.98071597049716</t>
+          <t>-45.12223278388419,170.98071500930337</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -18350,7 +18352,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-45.12209545693053,170.98060178094823</t>
+          <t>-45.12209646725936,170.9806026139789</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -18379,7 +18381,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-45.12178458624245,170.9803454652029</t>
+          <t>-45.12178427537149,170.98034520888854</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -18416,7 +18418,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-45.121737567003635,170.98030669768553</t>
+          <t>-45.1217358572129,170.98030528795883</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -18453,7 +18455,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-45.12177067476647,170.98033399513753</t>
+          <t>-45.12177184053265,170.98033495631594</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -18486,7 +18488,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-45.121772928581095,170.98033585341588</t>
+          <t>-45.121770985637454,170.98033425145175</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -18552,7 +18554,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-45.12204983669101,170.98056416644064</t>
+          <t>-45.122051468761114,170.98056551210345</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -18618,7 +18620,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-45.12223387192981,170.98071590641757</t>
+          <t>-45.12223503769297,170.98071686761136</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -18655,7 +18657,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-45.122377960197745,170.98083471026393</t>
+          <t>-45.12237625041313,170.9808333005061</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -18680,7 +18682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-45.12233684764558,170.9808008120189</t>
+          <t>-45.12233622590558,170.9808002993804</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -18717,7 +18719,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-45.12217138701364,170.9806643864864</t>
+          <t>-45.122171775601494,170.98066470688363</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -18754,7 +18756,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-45.121894556810375,170.98043613658388</t>
+          <t>-45.12189556714036,170.98043696960875</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -18787,7 +18789,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-45.12175513121662,170.98032117942847</t>
+          <t>-45.121753265990534,170.98031964154387</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -18820,7 +18822,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-45.122062116075185,170.98057429095306</t>
+          <t>-45.12206196063997,170.98057416279462</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -18857,7 +18859,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-45.12207610524601,170.98058582521293</t>
+          <t>-45.1220753280699,170.98058518442056</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -18894,7 +18896,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-45.12220130827599,170.98068905708635</t>
+          <t>-45.122202318604224,170.98068989012003</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -18931,7 +18933,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-45.12227506222326,170.98074986862193</t>
+          <t>-45.12227622798615,170.9807508298171</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -18968,7 +18970,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-45.122329930788034,170.98079510891625</t>
+          <t>-45.122329619918034,170.98079485259706</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -19005,7 +19007,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-45.122324645997836,170.98079075149042</t>
+          <t>-45.122323402517765,170.98078972621386</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -19042,7 +19044,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-45.12234337591536,170.98080619472378</t>
+          <t>-45.12234205471791,170.98080510536676</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -19079,7 +19081,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-45.12215910763698,170.98065426193585</t>
+          <t>-45.12215980709517,170.98065483865062</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -19116,7 +19118,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-45.122094213448854,170.98060075567977</t>
+          <t>-45.12209390257842,170.98060049936268</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -19149,7 +19151,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-45.121925877037434,170.98046196036867</t>
+          <t>-45.12192727595564,170.980463113789</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -19186,7 +19188,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-45.12185492078311,170.98040345639987</t>
+          <t>-45.12185577567791,170.98040416126614</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -19223,7 +19225,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-45.12177518239568,170.9803377116944</t>
+          <t>-45.12177479380696,170.98033739130153</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -19260,7 +19262,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-45.12225034804833,170.98072949129352</t>
+          <t>-45.122248793697594,170.9807282097011</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -19297,7 +19299,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-45.12225633229855,170.9807344254249</t>
+          <t>-45.12225431164266,170.98073275935448</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -19334,7 +19336,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-45.122259907305086,170.98073737308832</t>
+          <t>-45.12226091763301,170.98073820612368</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -19371,7 +19373,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-45.122193070214635,170.9806822646589</t>
+          <t>-45.122193303367325,170.9806824568974</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -19408,7 +19410,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-45.12207742644543,170.98058691455998</t>
+          <t>-45.12207874764483,170.9805880039071</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -19445,7 +19447,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-45.12229130518541,170.98076326127804</t>
+          <t>-45.12228982855255,170.98076204376355</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19482,7 +19484,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-45.122221126252164,170.98070539736787</t>
+          <t>-45.12222050451177,170.9807048847314</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19548,7 +19550,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-45.12186844366399,170.9804146061047</t>
+          <t>-45.12186992030035,170.9804158236015</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -19581,7 +19583,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-45.12180704666785,170.98036398392347</t>
+          <t>-45.1218079792806,170.9803647528672</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19618,7 +19620,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-45.12184372943265,170.98039422906191</t>
+          <t>-45.12184473976292,170.9803950620853</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -19655,7 +19657,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-45.121796399338514,170.98035520515103</t>
+          <t>-45.12179500041928,170.9803540517359</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -19754,7 +19756,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-45.12188865026568,170.98043126659283</t>
+          <t>-45.12188942744264,170.98043190738107</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -19779,7 +19781,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-45.12176981987126,170.9803332902733</t>
+          <t>-45.121769275847036,170.9803328417234</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -19845,7 +19847,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-45.122107425441165,170.98061164915933</t>
+          <t>-45.122105948806784,170.98061043165256</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -19882,7 +19884,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-45.12217768213678,170.9806695769222</t>
+          <t>-45.12217721583137,170.98066919244545</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -19919,7 +19921,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-45.12221288819175,170.98069860493575</t>
+          <t>-45.122214131672585,170.98069963020842</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -19956,7 +19958,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-45.12225283500949,170.98073154184152</t>
+          <t>-45.12225205783413,170.98073090104526</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -19985,7 +19987,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-45.12217395169347,170.98066650110826</t>
+          <t>-45.12217426256373,170.98066675742606</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -20022,7 +20024,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-45.12229146062045,170.9807633894375</t>
+          <t>-45.12229045029271,170.98076255640123</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -20051,7 +20053,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-45.122137813019776,170.98063670418114</t>
+          <t>-45.12213866791321,170.98063740905425</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -20088,7 +20090,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-45.12195362224638,170.98048483654873</t>
+          <t>-45.12195447714071,170.98048554141735</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -20125,7 +20127,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-45.121876059998755,170.9804208858258</t>
+          <t>-45.12187707032884,170.98042171885012</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -20191,7 +20193,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-45.12187722576424,170.98042184700773</t>
+          <t>-45.12187862468282,170.9804230004261</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -20276,7 +20278,11 @@
           <t>2011-08-27 22:07:35+00:00</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>-45.12218840716089,170.98067841988947</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>-45.12235758794972,170.9797357465615</t>
@@ -20297,7 +20303,11 @@
           <t>2011-09-12 22:07:29+00:00</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>-45.122281668212835,170.98075531539504</t>
+        </is>
+      </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>-45.12251403514361,170.97989327227063</t>
@@ -20421,11 +20431,7 @@
           <t>2012-04-23 22:08:28+00:00</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>-45.121800052072004,170.98035821684633</t>
-        </is>
-      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
@@ -20518,7 +20524,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-45.122216540916696,170.98070161667428</t>
+          <t>-45.12221801755017,170.9807028341857</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -20551,7 +20557,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-45.12213594779771,170.98063516627624</t>
+          <t>-45.12213711356149,170.9806361274668</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -20584,7 +20590,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-45.12223721378415,170.98071866183992</t>
+          <t>-45.122237291501705,170.98071872591947</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -20621,7 +20627,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-45.121754509474584,170.98032066680025</t>
+          <t>-45.121754431756834,170.98032060272175</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -20654,7 +20660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-45.12179538900795,170.980354372129</t>
+          <t>-45.12179414552419,170.98035334687114</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -20716,7 +20722,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-45.12179468954834,170.98035379542145</t>
+          <t>-45.12179228029852,170.98035180898447</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -20770,7 +20776,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-45.1218595061279,170.9804072370463</t>
+          <t>-45.121859816998715,170.98040749336135</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -20807,7 +20813,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-45.122136724973565,170.98063580706994</t>
+          <t>-45.122136103232876,170.980635294435</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -20844,7 +20850,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-45.122022324649954,170.9805414824221</t>
+          <t>-45.12202310182632,170.98054212321327</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -20881,7 +20887,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-45.122036002953394,170.98055276034952</t>
+          <t>-45.12203747958835,170.98055397785336</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -20918,7 +20924,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-45.122061261181386,170.98057358608182</t>
+          <t>-45.12206258238091,170.9805746754283</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -20955,7 +20961,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-45.12230366227046,170.98077344995448</t>
+          <t>-45.12230156389759,170.98077171980157</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -20984,7 +20990,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-45.12223884585254,170.98072000751137</t>
+          <t>-45.12223907900517,170.98072019975018</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -21021,7 +21027,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-45.12225866382455,170.98073634781406</t>
+          <t>-45.12225811980183,170.9807358992566</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -21058,7 +21064,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-45.122130196696205,170.9806304244034</t>
+          <t>-45.12213120702485,170.98063125743505</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -21095,7 +21101,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-45.122045329068754,170.98056044984858</t>
+          <t>-45.12204680570364,170.98056166735282</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -21132,7 +21138,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-45.122131284742444,170.9806313215144</t>
+          <t>-45.12213182876557,170.98063177006992</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -21169,7 +21175,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-45.12225198011659,170.98073083696562</t>
+          <t>-45.12225135837632,170.98073032432862</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -21206,7 +21212,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-45.1220469611389,170.98056179551116</t>
+          <t>-45.1220472720094,170.98056205182783</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -21289,7 +21295,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-45.12171448482732,170.98028766638186</t>
+          <t>-45.121712541883035,170.98028606442094</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -21314,7 +21320,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-45.1217678769276,170.98033168830938</t>
+          <t>-45.12176585626616,170.98033002226697</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -21347,7 +21353,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-45.1218648686496,170.98041165848107</t>
+          <t>-45.12186626756828,170.980412811899</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -21380,7 +21386,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-45.1217165832071,170.98028939649973</t>
+          <t>-45.12171673864264,170.98028952465663</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -21409,7 +21415,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-45.12186401375486,170.9804109536146</t>
+          <t>-45.12186517952043,170.98041191479615</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -21504,7 +21510,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-45.122132994529395,170.98063273126033</t>
+          <t>-45.12213260594145,170.98063241086354</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -21541,7 +21547,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-45.12223130725085,170.98071379179135</t>
+          <t>-45.12223068551049,170.9807132791547</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -21578,7 +21584,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-45.12214037770008,170.98063881880054</t>
+          <t>-45.122141932051775,170.98064010038817</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -21615,7 +21621,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-45.122147916305636,170.98064503450112</t>
+          <t>-45.12214729456497,170.98064452186594</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -21652,7 +21658,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-45.12225337903225,170.9807319903989</t>
+          <t>-45.122252601856886,170.98073134960265</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -21689,7 +21695,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-45.12228330028081,170.9807566610686</t>
+          <t>-45.122280813320074,170.98075461051846</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -21726,7 +21732,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-45.12207330741194,170.9805835183605</t>
+          <t>-45.1220719084949,170.98058236493438</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -21821,7 +21827,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-45.12213291681181,170.98063266718097</t>
+          <t>-45.122132683659046,170.9806324749429</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -21850,7 +21856,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-45.12188740678258,170.98043024133167</t>
+          <t>-45.12188833939492,170.98043101027756</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -21887,7 +21893,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-45.12179375693552,170.98035302647807</t>
+          <t>-45.12179259116947,170.9803520652989</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -21924,7 +21930,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-45.12172777456556,170.9802986237973</t>
+          <t>-45.1217256761859,170.9802968936787</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -21957,7 +21963,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-45.12173787787467,170.9803069539995</t>
+          <t>-45.121736168083935,170.98030554427277</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -21994,7 +22000,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-45.12186805507547,170.9804142857108</t>
+          <t>-45.121869609429545,170.9804155672864</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -22031,7 +22037,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-45.121767643774355,170.9803314960737</t>
+          <t>-45.121766555725884,170.98033059897395</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -22068,7 +22074,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-45.1218429522555,170.98039358827467</t>
+          <t>-45.121843573997225,170.98039410090445</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -22105,7 +22111,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-45.121777125339264,170.98033931365876</t>
+          <t>-45.121776270444094,170.98033860879443</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -22142,7 +22148,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-45.12172194573312,170.9802938179127</t>
+          <t>-45.12172225660418,170.9802940742265</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -22179,7 +22185,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-45.12180860102244,170.98036526549635</t>
+          <t>-45.1218079792806,170.9803647528672</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -22212,7 +22218,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-45.12187924642442,170.9804235130565</t>
+          <t>-45.12188033447219,170.98042441015977</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -22249,7 +22255,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-45.12187722576424,170.98042184700773</t>
+          <t>-45.12187862468282,170.9804230004261</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -22286,7 +22292,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-45.12217814844218,170.98066996139897</t>
+          <t>-45.12217807072462,170.9806698973195</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -22352,7 +22358,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-45.122234959975415,170.98071680353178</t>
+          <t>-45.12223379421226,170.980715842338</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -22389,7 +22395,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-45.12206654597941,170.9805779434681</t>
+          <t>-45.12206794489651,170.980579096894</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -22426,7 +22432,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-45.12214053313524,170.98063894695932</t>
+          <t>-45.122141932051775,170.98064010038817</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -22463,7 +22469,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-45.12224949315544,170.9807287864177</t>
+          <t>-45.12225003717818,170.98072923497503</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -22500,7 +22506,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-45.12227716059645,170.98075159877325</t>
+          <t>-45.122276305703664,170.98075089389678</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -22537,7 +22543,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-45.12228446604363,170.98075762226404</t>
+          <t>-45.12228384430347,170.98075710962647</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -22574,7 +22580,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-45.12226394861672,170.98074070522995</t>
+          <t>-45.122265269814726,170.98074179458408</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -22611,7 +22617,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-45.12220433926071,170.9806915561875</t>
+          <t>-45.12220550502406,170.98069251738033</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -22648,7 +22654,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-45.12190372749777,170.9804436978877</t>
+          <t>-45.12190357206241,170.98044356972997</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -22685,7 +22691,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-45.12185266696953,170.98040159811623</t>
+          <t>-45.121852356098685,170.98040134180127</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22722,7 +22728,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-45.12187901327131,170.98042332082014</t>
+          <t>-45.12188017903679,170.98042428200216</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -22759,7 +22765,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-45.12172777456556,170.9802986237973</t>
+          <t>-45.12172552075036,170.9802967655218</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -22792,7 +22798,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-45.12186929855872,170.98041531097127</t>
+          <t>-45.12187093063048,170.9804166566257</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22829,7 +22835,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-45.12193737925344,170.9804714440485</t>
+          <t>-45.12193784555947,170.98047182852207</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -22866,7 +22872,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-45.12185414360602,170.9804028156124</t>
+          <t>-45.12185460991228,170.9804032000849</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22895,7 +22901,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-45.12188950516033,170.9804319714599</t>
+          <t>-45.12188872798338,170.98043133067165</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22965,7 +22971,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-45.121913908514586,170.98045209221934</t>
+          <t>-45.12191507427983,170.98045305340253</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -23002,7 +23008,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-45.122307314993556,170.98077646170242</t>
+          <t>-45.122306615535955,170.9807758849847</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23039,7 +23045,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-45.12217993594625,170.98067143522664</t>
+          <t>-45.12218047996922,170.98067188378292</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -23076,7 +23082,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-45.12227008830154,170.980745767523</t>
+          <t>-45.1222691556912,170.98074499856705</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -23113,7 +23119,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-45.12220060881796,170.98068848037076</t>
+          <t>-45.122201696863776,170.98068937748394</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -23150,7 +23156,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-45.12201362027451,170.98053430556192</t>
+          <t>-45.122014475168534,170.98053501043202</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -23187,7 +23193,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-45.12195261191672,170.98048400352218</t>
+          <t>-45.12195362224638,170.98048483654873</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23224,7 +23230,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-45.12182600979296,170.98037961911737</t>
+          <t>-45.1218257766398,170.9803794268813</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -23257,7 +23263,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-45.121910488936486,170.98044927274884</t>
+          <t>-45.12190924545352,170.98044824748692</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -23294,7 +23300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-45.121636456168716,170.98022333171642</t>
+          <t>-45.12163412463457,170.98022140936854</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -23327,7 +23333,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-45.12182919621954,170.98038224634357</t>
+          <t>-45.12183051742077,170.98038333568135</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -23364,7 +23370,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-45.12183735657998,170.98038897460714</t>
+          <t>-45.12183766745084,170.98038923092196</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -23397,7 +23403,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-45.12180393795861,170.9803614207779</t>
+          <t>-45.12180308306357,170.98036071591292</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -23434,7 +23440,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-45.12203716871783,170.98055372153678</t>
+          <t>-45.122038489917536,170.98055481088238</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -23471,7 +23477,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-45.12212996354344,170.9806302321653</t>
+          <t>-45.12212918636755,170.98062959137178</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -23508,7 +23514,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-45.12229456932118,170.98076595262611</t>
+          <t>-45.12229433616861,170.98076576038696</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -23545,7 +23551,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-45.12230148618008,170.98077165572184</t>
+          <t>-45.12230016498233,170.98077056636637</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -23582,7 +23588,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-45.12218762998524,170.98067777909463</t>
+          <t>-45.122189106618954,170.98067899660487</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -23619,7 +23625,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-45.1222160746114,170.980701232197</t>
+          <t>-45.122214908848115,170.98070027100383</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -23656,7 +23662,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-45.12209227050872,170.9805991536979</t>
+          <t>-45.122092348226325,170.98059921777718</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -23693,7 +23699,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-45.122002195781064,170.98052488593623</t>
+          <t>-45.122002428934,170.98052507817346</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -23730,7 +23736,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-45.121940954266364,170.9804743916795</t>
+          <t>-45.12194188687841,170.98047516062675</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -23767,7 +23773,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-45.122158175026065,170.9806534929828</t>
+          <t>-45.12215607665148,170.9806517628386</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -23858,7 +23864,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-45.12185764090291,170.98040569915617</t>
+          <t>-45.12185903982165,170.9804068525738</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -23916,7 +23922,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-45.12174261865798,170.9803108627877</t>
+          <t>-45.12174160832713,170.98031002976722</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -23978,7 +23984,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-45.12170477010575,170.9802796565784</t>
+          <t>-45.12170243857249,170.98027773422598</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -24015,7 +24021,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-45.12183867778116,170.9803900639452</t>
+          <t>-45.12183999898233,170.98039115328334</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24052,7 +24058,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-45.121684252612056,170.9802627398824</t>
+          <t>-45.12168285369194,170.98026158647173</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -24085,7 +24091,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-45.12181893748015,170.9803737879578</t>
+          <t>-45.12181792714972,170.9803729549351</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -24176,7 +24182,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-45.122104161301976,170.98060895782862</t>
+          <t>-45.12210556021878,170.98061011125606</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -24213,7 +24219,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-45.12222757680865,170.98071071597172</t>
+          <t>-45.122226488763,170.98070981885772</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -24250,7 +24256,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-45.12201750615645,170.9805375095171</t>
+          <t>-45.1220182056152,170.98053808622905</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -24279,7 +24285,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-45.122000097404644,170.9805231558013</t>
+          <t>-45.12200165175756,170.98052443738274</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -24316,7 +24322,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-45.122275217658306,170.9807499967813</t>
+          <t>-45.12227296385005,170.98074813847074</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -24353,7 +24359,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-45.122144185861686,170.9806419586903</t>
+          <t>-45.122142553792436,170.9806406130232</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -24390,7 +24396,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-45.12202294639104,170.98054199505503</t>
+          <t>-45.122024189873216,170.98054302032097</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -24427,7 +24433,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-45.12220550502406,170.98069251738033</t>
+          <t>-45.12220356208515,170.98069091539233</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -24464,7 +24470,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-45.12222819854902,170.98071122860827</t>
+          <t>-45.12222718822092,170.98071039557385</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -24501,7 +24507,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-45.122116751552795,170.9806193386773</t>
+          <t>-45.122116518400006,170.98061914643932</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -24538,7 +24544,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-45.122255321970606,170.98073359238967</t>
+          <t>-45.12225477794786,170.98073314383223</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -24600,7 +24606,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-45.12190567043995,170.98044529985916</t>
+          <t>-45.1219048155454,170.9804445949917</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -24691,7 +24697,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-45.12177355032304,170.9803363660444</t>
+          <t>-45.12177261771011,170.9803355971016</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -24728,7 +24734,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-45.121797798257724,170.9803563585662</t>
+          <t>-45.121798109128655,170.9803566148807</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -24811,7 +24817,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-45.12168844937232,170.98026620011467</t>
+          <t>-45.121687128170024,170.98026511078223</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -24877,7 +24883,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-45.12185678600813,170.9804049942899</t>
+          <t>-45.121857330032086,170.98040544284115</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -24910,7 +24916,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-45.12209390257842,170.98060049936268</t>
+          <t>-45.122093591708,170.9806002430456</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -24947,7 +24953,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-45.122321070992605,170.98078780382042</t>
+          <t>-45.122319128054954,170.98078620182605</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -25013,7 +25019,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-45.12223573715085,170.98071744432767</t>
+          <t>-45.122234182799986,170.98071616273592</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -25104,7 +25110,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-45.12225438936019,170.9807328234341</t>
+          <t>-45.12225353446731,170.98073211855817</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -25129,7 +25135,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-45.12223223986139,170.98071456074632</t>
+          <t>-45.12223091866313,170.98071347139344</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -25191,7 +25197,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-45.12225128065876,170.980730260249</t>
+          <t>-45.12224957087297,170.98072885049731</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -25228,7 +25234,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-45.122287730179515,170.98076031361148</t>
+          <t>-45.12228547637142,170.9807584553001</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -25290,7 +25296,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-45.12197685982702,170.98050399616736</t>
+          <t>-45.121977947874214,170.98050489327363</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -25323,7 +25329,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-45.12203678012968,170.980553401141</t>
+          <t>-45.12203771274124,170.9805541700908</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -25360,7 +25366,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-45.12189074864343,170.9804329967211</t>
+          <t>-45.12189090407881,170.98043312487877</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -25414,7 +25420,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-45.121822823366344,170.98037699189143</t>
+          <t>-45.121821735318214,170.98037609479</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -25435,7 +25441,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-45.121788705282604,170.98034886136858</t>
+          <t>-45.1217897156132,170.9803496943904</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -25472,7 +25478,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-45.121787617234276,170.98034796426816</t>
+          <t>-45.12178614059724,170.98034674677479</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -25509,7 +25515,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-45.12174798118322,170.98031528420464</t>
+          <t>-45.12174634911033,170.98031393855592</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -25538,7 +25544,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-45.121756918724905,170.98032265323465</t>
+          <t>-45.12175575295863,170.98032169205672</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -25575,7 +25581,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-45.12176251440296,170.98032726688942</t>
+          <t>-45.12176127091897,170.98032624163272</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -25658,7 +25664,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-45.12182919621954,170.98038224634357</t>
+          <t>-45.12182966252585,170.98038263081574</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -25716,7 +25722,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-45.12185616426644,170.98040448165986</t>
+          <t>-45.121857330032086,170.98040544284115</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -25753,7 +25759,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-45.12186129363514,170.98040871085783</t>
+          <t>-45.12186230396532,170.98040954388173</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -25836,7 +25842,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-45.12194414069087,170.9804770189161</t>
+          <t>-45.1219440629732,170.98047695483717</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -25873,7 +25879,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-45.12213563692735,170.98063490995878</t>
+          <t>-45.122135870080115,170.98063510219686</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -25894,7 +25900,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-45.122221126252164,170.98070539736787</t>
+          <t>-45.12221988277138,170.98070437209498</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -25960,7 +25966,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-45.12221762896241,170.98070251378797</t>
+          <t>-45.122219027878316,170.9807036672199</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -25989,7 +25995,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-45.122266591012746,170.98074288393823</t>
+          <t>-45.122266513295216,170.9807428198586</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -26026,7 +26032,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-45.12222788767884,170.98071097229</t>
+          <t>-45.12222726593847,170.98071045965344</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -26063,7 +26069,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-45.12203973339959,170.98055583614885</t>
+          <t>-45.12204089916402,170.98055679733622</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -26150,7 +26156,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-45.12183518048389,170.98038718040334</t>
+          <t>-45.12183455874216,170.9803866677737</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -26187,7 +26193,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-45.121840154417754,170.9803912814408</t>
+          <t>-45.12184038757091,170.98039147367692</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -26216,7 +26222,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-45.12177914600058,170.9803409797018</t>
+          <t>-45.12177704762152,170.98033924958017</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -26249,7 +26255,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-45.121753421426035,170.9803197697009</t>
+          <t>-45.121751944788734,170.98031855220898</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -26270,7 +26276,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-45.121753265990534,170.98031964154387</t>
+          <t>-45.12175186707096,170.98031848813045</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -26307,7 +26313,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-45.121727619130034,170.98029849564034</t>
+          <t>-45.12172738597674,170.98029830340496</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -26361,7 +26367,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-45.121817383125645,170.9803725063844</t>
+          <t>-45.121818082585165,170.98037308309242</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -26386,7 +26392,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-45.121845439222355,170.98039563879385</t>
+          <t>-45.12184613868177,170.98039621550242</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -26419,7 +26425,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-45.12168145477182,170.98026043306112</t>
+          <t>-45.12168021128727,170.9802594078073</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -26456,7 +26462,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-45.12188181110845,170.98042562765707</t>
+          <t>-45.1218830545916,170.98042665291803</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -26493,7 +26499,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-45.12190178455557,170.98044209591635</t>
+          <t>-45.12189991933103,170.98044055802396</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -26530,7 +26536,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-45.121858884386235,170.98040672441627</t>
+          <t>-45.12186051645808,170.9804080700702</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -26621,7 +26627,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-45.12216384840907,170.9806581707808</t>
+          <t>-45.122163692973935,170.98065804262194</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -26658,7 +26664,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-45.122239933898115,170.98072090462574</t>
+          <t>-45.12223791324204,170.98071923855625</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -26720,7 +26726,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-45.12224296488221,170.98072340373022</t>
+          <t>-45.12224172140156,170.98072237845656</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -26757,7 +26763,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-45.12210571565398,170.98061023941466</t>
+          <t>-45.12210657054758,170.98061094428698</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -26794,7 +26800,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-45.122222525168056,170.98070655079994</t>
+          <t>-45.12222128168727,170.980705525527</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -26831,7 +26837,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-45.12207253023581,170.9805828775682</t>
+          <t>-45.12207400687047,170.9805840950736</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -26868,7 +26874,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-45.122276461138725,170.98075102205615</t>
+          <t>-45.12227591711604,170.9807505734984</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -26905,7 +26911,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-45.12216571363086,170.9806597086872</t>
+          <t>-45.12216594678357,170.9806599009255</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -26967,7 +26973,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-45.12205411116029,170.98056769079574</t>
+          <t>-45.12205488833651,170.98056833158765</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -27004,7 +27010,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-45.12224591814869,170.98072583875538</t>
+          <t>-45.12224389749268,170.9807241726855</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -27041,7 +27047,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-45.12219944305458,170.9806875191781</t>
+          <t>-45.12219734468049,170.98068578903138</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -27078,7 +27084,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-45.12199784359291,170.9805212975084</t>
+          <t>-45.12199636695761,170.98052008000622</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -27124,7 +27130,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-45.12182049183463,170.98037506953122</t>
+          <t>-45.12182018096373,170.9803748132165</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -27161,7 +27167,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-45.121846838141174,170.98039679221097</t>
+          <t>-45.121846760423466,170.98039672813223</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -27198,7 +27204,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-45.12178248786346,170.98034373508096</t>
+          <t>-45.121782254710226,170.9803435428452</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -27227,7 +27233,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-45.12185492078311,170.98040345639987</t>
+          <t>-45.12185593111333,170.98040428942363</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -27310,7 +27316,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-45.12185530937166,170.98040377679362</t>
+          <t>-45.121856086548746,170.98040441758113</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -27335,7 +27341,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-45.12178994876641,170.98034988662624</t>
+          <t>-45.121787850387484,170.98034815650396</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -27372,7 +27378,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-45.12178419765375,170.98034514480995</t>
+          <t>-45.12178287645216,170.9803440554739</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -27409,7 +27415,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-45.12183502504846,170.9803870522459</t>
+          <t>-45.12183533591933,170.98038730856072</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -27504,7 +27510,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-45.12188150023766,170.98042537134185</t>
+          <t>-45.12188064534299,170.980424666475</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -27541,7 +27547,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-45.1220555877951,170.98056890830037</t>
+          <t>-45.12205434431314,170.98056788303333</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -27599,7 +27605,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-45.12225547740567,170.98073372054893</t>
+          <t>-45.122253456749775,170.98073205447855</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -27636,7 +27642,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-45.122169210921626,170.98066259226192</t>
+          <t>-45.122167889722895,170.98066150291143</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -27673,7 +27679,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-45.12229760030433,170.98076845173532</t>
+          <t>-45.12229581280145,170.98076697790165</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -27710,7 +27716,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-45.12218537617588,170.9806759207897</t>
+          <t>-45.12218522074075,170.98067579263073</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -27747,7 +27753,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-45.12207944710334,170.98058858062026</t>
+          <t>-45.12207913623289,170.98058832430328</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -27805,7 +27811,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-45.12200227349871,170.9805249500153</t>
+          <t>-45.122003050675154,170.98052559080605</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -27842,7 +27848,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-45.122001030016385,170.98052392475014</t>
+          <t>-45.122000641428166,170.9805236043548</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -27879,7 +27885,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-45.122064680756594,170.98057640556695</t>
+          <t>-45.12206351499233,170.9805754443788</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -27916,7 +27922,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-45.12196318151906,170.9804927182629</t>
+          <t>-45.12196372554269,170.98049316681582</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -27953,7 +27959,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-45.12207229708296,170.98058268533052</t>
+          <t>-45.12207074273068,170.980581403746</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -27990,7 +27996,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-45.12181481844067,170.98037039178857</t>
+          <t>-45.121814585287495,170.9803701995526</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -28027,7 +28033,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-45.12174223006921,170.98031054239522</t>
+          <t>-45.12174246322247,170.9803107346307</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -28048,7 +28054,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-45.12187124150128,170.9804169129408</t>
+          <t>-45.12187264041992,170.98041806635896</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -28085,7 +28091,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-45.12182795273599,170.98038122108454</t>
+          <t>-45.121826087510684,170.98037968319605</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -28122,7 +28128,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-45.121807124385576,170.9803640480021</t>
+          <t>-45.12180572546643,170.98036289458656</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -28159,7 +28165,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-45.12183409243583,170.98038628330147</t>
+          <t>-45.12183292667007,170.98038532212095</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -28196,7 +28202,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-45.12182725327651,170.98038064437634</t>
+          <t>-45.12182740871195,170.98038077253372</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -28233,7 +28239,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-45.121815440182495,170.98037090441787</t>
+          <t>-45.121815129311585,170.98037064810322</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -28270,7 +28276,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-45.12185717459666,170.98040531468365</t>
+          <t>-45.12185818492687,170.98040614770747</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -28307,7 +28313,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-45.121736323519464,170.98030567242975</t>
+          <t>-45.12173438057543,170.98030407046764</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -28344,7 +28350,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-45.12201960453267,170.98053923965307</t>
+          <t>-45.12202108116778,170.98054045715622</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -28381,7 +28387,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-45.12186082732891,170.98040832638526</t>
+          <t>-45.12186214852993,170.9804094157242</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -28418,7 +28424,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-45.12183642396737,170.98038820566265</t>
+          <t>-45.12183657940281,170.98038833382003</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -28455,7 +28461,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-45.12183339297637,170.98038570659318</t>
+          <t>-45.121832848952344,170.98038525804228</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -28492,7 +28498,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-45.12188538612249,170.98042857528242</t>
+          <t>-45.12188546384019,170.98042863936124</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -28587,7 +28593,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-45.1219907712869,170.98051546631427</t>
+          <t>-45.12198867291034,170.98051373618003</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -28624,7 +28630,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-45.122173407670466,170.9806660525521</t>
+          <t>-45.12217193103664,170.98066483504252</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -28661,7 +28667,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-45.12208278896059,170.98059133602794</t>
+          <t>-45.12208325526624,170.98059172050344</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -28698,7 +28704,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-45.122050380714384,170.98056461499493</t>
+          <t>-45.122050302996755,170.98056455091572</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -28735,7 +28741,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-45.122128176038885,170.98062875834017</t>
+          <t>-45.12212669940466,170.98062754083253</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -28768,7 +28774,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-45.122093280837596,170.98059998672846</t>
+          <t>-45.12209289224956,170.98059966633213</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -28805,7 +28811,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-45.12204089916402,170.98055679733622</t>
+          <t>-45.122042142646066,170.98055782260278</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -28842,7 +28848,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-45.12221848385547,170.98070321866302</t>
+          <t>-45.12222050451177,170.9807048847314</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -28879,7 +28885,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-45.12202123660305,170.98054058531446</t>
+          <t>-45.1220226355205,170.98054173873857</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -28916,7 +28922,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-45.122084576465596,170.98059280985078</t>
+          <t>-45.12208317754864,170.9805916564242</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -28953,7 +28959,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-45.12200250665165,170.98052514225253</t>
+          <t>-45.12200343926338,170.98052591120145</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -28990,7 +28996,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-45.122176205502974,170.98066835941248</t>
+          <t>-45.1221748843043,170.9806672700617</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -29027,7 +29033,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-45.12203825676465,170.9805546186449</t>
+          <t>-45.12203802361176,170.98055442640745</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -29064,7 +29070,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-45.12202100345013,170.9805403930771</t>
+          <t>-45.12202077029723,170.98054020083976</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -29101,7 +29107,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-45.12189175897343,170.9804338297459</t>
+          <t>-45.12189292473884,170.98043479092834</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -29138,7 +29144,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-45.12180580318417,170.98036295866518</t>
+          <t>-45.12180432654727,170.98036174117107</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -29175,7 +29181,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>-45.12178652918593,170.9803470671678</t>
+          <t>-45.12178513026662,170.98034591375307</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -29208,7 +29214,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-45.12182080270553,170.98037532584587</t>
+          <t>-45.12182088042325,170.98037538992457</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -29245,7 +29251,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-45.12187217411372,170.98041768188625</t>
+          <t>-45.1218717855252,170.9804173614923</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -29278,7 +29284,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-45.12186385831944,170.98041082545706</t>
+          <t>-45.121863936037144,170.98041088953585</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -29315,7 +29321,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>-45.12193178358088,170.98046683036594</t>
+          <t>-45.12193147271018,170.9804665740503</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -29352,7 +29358,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-45.12197592721515,170.98050322721917</t>
+          <t>-45.12197600493281,170.9805032912982</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -29389,7 +29395,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-45.121974450579685,170.9805020097179</t>
+          <t>-45.12197553862688,170.98050290682409</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -29426,7 +29432,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-45.12198455387481,170.98051033999096</t>
+          <t>-45.12198548648663,170.98051110893937</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -29463,7 +29469,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-45.12210159662115,170.98060684321186</t>
+          <t>-45.12210089716274,170.98060626649823</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -29500,7 +29506,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-45.12204035514061,170.9805563487821</t>
+          <t>-45.12204128775216,170.98055711773202</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -29537,7 +29543,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-45.12212895321478,170.9806293991337</t>
+          <t>-45.12213004126103,170.98063029624467</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -29574,7 +29580,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-45.12205434431314,170.98056788303333</t>
+          <t>-45.122055121489375,170.9805685238252</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -29611,7 +29617,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>-45.121954243987716,170.98048534918047</t>
+          <t>-45.121955021164375,170.98048598997013</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -29648,7 +29654,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-45.12206911066076,170.9805800580823</t>
+          <t>-45.122067789461276,170.98057896873556</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -29685,7 +29691,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-45.121835258201614,170.98038724448205</t>
+          <t>-45.12183315982323,170.98038551435707</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -29722,7 +29728,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-45.12186580126206,170.98041242742633</t>
+          <t>-45.12186704474533,170.9804134526867</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -29759,7 +29765,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-45.121866500721396,170.98041300413527</t>
+          <t>-45.12186797735777,170.98041422163203</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -29796,7 +29802,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-45.12181411898113,170.98036981508062</t>
+          <t>-45.121814585287495,170.9803701995526</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -29850,7 +29856,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>-45.121831450033405,170.9803841046257</t>
+          <t>-45.12183191633973,170.98038448909787</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -29883,7 +29889,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-45.121830906009365,170.98038365607482</t>
+          <t>-45.12183152775113,170.9803841687044</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -29916,7 +29922,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>-45.121847848471454,170.98039762523447</t>
+          <t>-45.12184901423713,170.9803985864155</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -29953,7 +29959,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>-45.12180930048199,170.98036584220415</t>
+          <t>-45.12180782384514,170.9803646247099</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -29986,7 +29992,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>-45.121911965572494,170.98045049024742</t>
+          <t>-45.12191297590238,170.9804513232728</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -30023,7 +30029,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>-45.12194973636304,170.98048163260063</t>
+          <t>-45.121948259727354,170.98048041510046</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -30060,7 +30066,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>-45.12196271521308,170.98049233378896</t>
+          <t>-45.12196279293074,170.98049239786798</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -30097,7 +30103,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>-45.121962559777764,170.98049220563098</t>
+          <t>-45.12196372554269,170.98049316681582</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -30134,7 +30140,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>-45.12199341368699,170.980517645002</t>
+          <t>-45.12199442401641,170.98051847802975</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">

--- a/data/nzd0473/nzd0473.xlsx
+++ b/data/nzd0473/nzd0473.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G412"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11553,6 +11553,33 @@
         <v>304.66</v>
       </c>
       <c r="G412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>287.99</v>
+      </c>
+      <c r="C413" t="n">
+        <v>276.45</v>
+      </c>
+      <c r="D413" t="n">
+        <v>301.73</v>
+      </c>
+      <c r="E413" t="n">
+        <v>296.08</v>
+      </c>
+      <c r="F413" t="n">
+        <v>303.98</v>
+      </c>
+      <c r="G413" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -11569,7 +11596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B460"/>
+  <dimension ref="A1:B461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16177,6 +16204,16 @@
       </c>
       <c r="B460" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -16344,34 +16381,34 @@
         <v>0.13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0961</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2605666879499853</v>
+        <v>-0.2662888444510006</v>
       </c>
       <c r="J2" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K2" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01560823219388996</v>
+        <v>0.01634225275724044</v>
       </c>
       <c r="M2" t="n">
-        <v>12.82522951679644</v>
+        <v>12.82404141578175</v>
       </c>
       <c r="N2" t="n">
-        <v>219.8177919880798</v>
+        <v>219.6250604866343</v>
       </c>
       <c r="O2" t="n">
-        <v>14.82625347105869</v>
+        <v>14.81975237602283</v>
       </c>
       <c r="P2" t="n">
-        <v>306.7550865294723</v>
+        <v>306.8183245537119</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16426,34 +16463,34 @@
         <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0488</v>
+        <v>0.0487</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0793</v>
+        <v>0.079</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5391669490970687</v>
+        <v>-0.5458684377960421</v>
       </c>
       <c r="J3" t="n">
+        <v>412</v>
+      </c>
+      <c r="K3" t="n">
         <v>411</v>
       </c>
-      <c r="K3" t="n">
-        <v>410</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.05272609470188805</v>
+        <v>0.05412966243213158</v>
       </c>
       <c r="M3" t="n">
-        <v>13.63638645173918</v>
+        <v>13.63865620748129</v>
       </c>
       <c r="N3" t="n">
-        <v>269.0003857325081</v>
+        <v>268.8246213923136</v>
       </c>
       <c r="O3" t="n">
-        <v>16.40123122611556</v>
+        <v>16.39587208392142</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6630121526003</v>
+        <v>304.7367645452127</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16508,34 +16545,34 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.035</v>
+        <v>0.0349</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0563</v>
+        <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7044967629182782</v>
+        <v>-0.7068325350190663</v>
       </c>
       <c r="J4" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4066803320737552</v>
+        <v>0.4090706998024251</v>
       </c>
       <c r="M4" t="n">
-        <v>4.881262784698027</v>
+        <v>4.882086796982993</v>
       </c>
       <c r="N4" t="n">
-        <v>37.2514939131468</v>
+        <v>37.21909824486717</v>
       </c>
       <c r="O4" t="n">
-        <v>6.103400192773435</v>
+        <v>6.100745712195122</v>
       </c>
       <c r="P4" t="n">
-        <v>325.107275572447</v>
+        <v>325.1329807562794</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16586,34 +16623,34 @@
         <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0598</v>
+        <v>0.0594</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0696</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5152117115486539</v>
+        <v>-0.5200658422987364</v>
       </c>
       <c r="J5" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3147486276091521</v>
+        <v>0.3180317007578134</v>
       </c>
       <c r="M5" t="n">
-        <v>4.448147783146408</v>
+        <v>4.46963189062178</v>
       </c>
       <c r="N5" t="n">
-        <v>29.73087130253374</v>
+        <v>29.90928764401431</v>
       </c>
       <c r="O5" t="n">
-        <v>5.452602250534485</v>
+        <v>5.468938438491907</v>
       </c>
       <c r="P5" t="n">
-        <v>319.7827643254969</v>
+        <v>319.8361840590554</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16664,34 +16701,34 @@
         <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0614</v>
+        <v>0.0602</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0718</v>
+        <v>0.0713</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3547258950385096</v>
+        <v>-0.3610053808813697</v>
       </c>
       <c r="J6" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K6" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1748875071483689</v>
+        <v>0.1787096807996483</v>
       </c>
       <c r="M6" t="n">
-        <v>4.398871503270532</v>
+        <v>4.420991803751441</v>
       </c>
       <c r="N6" t="n">
-        <v>30.54149392439206</v>
+        <v>30.88670698719246</v>
       </c>
       <c r="O6" t="n">
-        <v>5.526435915161964</v>
+        <v>5.557581037393199</v>
       </c>
       <c r="P6" t="n">
-        <v>326.4713366718429</v>
+        <v>326.5404424454368</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16729,7 +16766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G412"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31957,6 +31994,43 @@
         </is>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-45.12189813182417,170.98043908421047</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-45.122163475898724,170.97954029781755</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-45.12279621149355,170.9790092132642</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-45.1232186343525,170.97830542331803</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-45.12373721146382,170.97775794652844</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
